--- a/docs/テスト種別&観点カタログ変更履歴_第1.1版以前.xlsx
+++ b/docs/テスト種別&観点カタログ変更履歴_第1.1版以前.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="60" windowWidth="20580" windowHeight="12120" tabRatio="823"/>
+    <workbookView xWindow="5850" yWindow="60" windowWidth="20580" windowHeight="12120" tabRatio="823"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -1546,16 +1546,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="3"/>
   </si>
@@ -5984,6 +5974,10 @@
 ■ウェブアプリケーション No.1
 ■バッチアプリケーション No.1
 </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト種別＆テスト観点カタログ©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -9518,11 +9512,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI512"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="77" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="77" workbookViewId="0">
+      <selection activeCell="AG19" sqref="AG19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="4"/>
+    <col min="1" max="16384" width="4.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="13.5" customHeight="1">
@@ -9562,7 +9558,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" ht="13.2" customHeight="1">
+    <row r="2" spans="1:35" ht="13.15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -10358,7 +10354,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -10434,7 +10430,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -10676,7 +10672,7 @@
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
     </row>
-    <row r="32" spans="1:35" ht="28.8">
+    <row r="32" spans="1:35" ht="28.5">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -10694,9 +10690,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="12" t="s">
-        <v>120</v>
-      </c>
+      <c r="R32" s="12"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -10715,7 +10709,7 @@
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
     </row>
-    <row r="33" spans="1:35" ht="26.4">
+    <row r="33" spans="1:35" ht="24.75">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -10866,12 +10860,12 @@
     <row r="37" spans="1:35" ht="13.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -10886,7 +10880,7 @@
       <c r="P37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -10905,9 +10899,11 @@
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
     </row>
-    <row r="38" spans="1:35" ht="13.5" customHeight="1">
+    <row r="38" spans="1:35" ht="23.25" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -11431,16 +11427,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AG19" sqref="AG19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="46" customWidth="1"/>
-    <col min="3" max="4" width="12.875" style="46" customWidth="1"/>
-    <col min="5" max="6" width="28.875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="60.875" style="46" customWidth="1"/>
-    <col min="8" max="16384" width="4.875" style="46"/>
+    <col min="2" max="2" width="8.83203125" style="46" customWidth="1"/>
+    <col min="3" max="4" width="12.83203125" style="46" customWidth="1"/>
+    <col min="5" max="6" width="28.83203125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="60.83203125" style="46" customWidth="1"/>
+    <col min="8" max="16384" width="4.83203125" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="22" customFormat="1" ht="22.5" customHeight="1">
@@ -11476,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="25" customFormat="1" ht="30.6" thickTop="1">
+    <row r="4" spans="1:7" s="25" customFormat="1" ht="30.75" thickTop="1">
       <c r="A4" s="26">
         <v>1</v>
       </c>
@@ -11496,7 +11494,7 @@
         <v>115</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="25" customFormat="1" ht="30">
@@ -11519,7 +11517,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="25" customFormat="1" ht="30">
@@ -11542,10 +11540,10 @@
         <v>94</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="25" customFormat="1" ht="60">
       <c r="A7" s="31">
         <v>4</v>
       </c>
@@ -11565,7 +11563,7 @@
         <v>94</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="25" customFormat="1" ht="30">
@@ -11588,7 +11586,7 @@
         <v>94</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" ht="30">
@@ -11611,7 +11609,7 @@
         <v>95</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1" ht="45">
@@ -11634,7 +11632,7 @@
         <v>27</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1" ht="45">
@@ -11657,7 +11655,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="25" customFormat="1" ht="30">
@@ -11680,7 +11678,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" ht="30">
@@ -11703,7 +11701,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="105">
@@ -11726,7 +11724,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" ht="30">
@@ -11749,7 +11747,7 @@
         <v>27</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1" ht="45">
@@ -11772,7 +11770,7 @@
         <v>27</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="25" customFormat="1" ht="60">
@@ -11795,7 +11793,7 @@
         <v>27</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="25" customFormat="1" ht="45">
@@ -11818,7 +11816,7 @@
         <v>27</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="25" customFormat="1" ht="60">
@@ -11841,7 +11839,7 @@
         <v>27</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="25" customFormat="1" ht="120">
@@ -11864,7 +11862,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="25" customFormat="1" ht="105">
@@ -11887,7 +11885,7 @@
         <v>27</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="25" customFormat="1" ht="105">
@@ -11910,7 +11908,7 @@
         <v>27</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="25" customFormat="1" ht="60">
@@ -11933,7 +11931,7 @@
         <v>27</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="25" customFormat="1" ht="75">
@@ -11956,7 +11954,7 @@
         <v>27</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="25" customFormat="1" ht="90">
@@ -11979,7 +11977,7 @@
         <v>27</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="25" customFormat="1" ht="105">
@@ -12002,7 +12000,7 @@
         <v>27</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="25" customFormat="1" ht="75">
@@ -12025,7 +12023,7 @@
         <v>27</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="25" customFormat="1" ht="165">
@@ -12048,7 +12046,7 @@
         <v>96</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="25" customFormat="1" ht="45">
@@ -12071,7 +12069,7 @@
         <v>96</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="25" customFormat="1" ht="75">
@@ -12094,7 +12092,7 @@
         <v>96</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="25" customFormat="1" ht="75">
@@ -12117,7 +12115,7 @@
         <v>96</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="25" customFormat="1" ht="135">
@@ -12140,10 +12138,10 @@
         <v>96</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="25" customFormat="1" ht="75">
       <c r="A33" s="31">
         <v>30</v>
       </c>
@@ -12163,7 +12161,7 @@
         <v>96</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="25" customFormat="1" ht="60">
@@ -12186,7 +12184,7 @@
         <v>96</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="25" customFormat="1" ht="75">
@@ -12209,7 +12207,7 @@
         <v>96</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="25" customFormat="1" ht="45">
@@ -12232,10 +12230,10 @@
         <v>96</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="25" customFormat="1" ht="90">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="25" customFormat="1" ht="105">
       <c r="A37" s="31">
         <v>34</v>
       </c>
@@ -12255,15 +12253,15 @@
         <v>96</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="25" customFormat="1" ht="75">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="25" customFormat="1" ht="23.25" customHeight="1">
       <c r="A38" s="31">
         <v>35</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>9</v>
+        <v>312</v>
       </c>
       <c r="C38" s="37">
         <v>43245</v>
@@ -12278,7 +12276,7 @@
         <v>96</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="25" customFormat="1" ht="45">
@@ -12301,10 +12299,10 @@
         <v>97</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="25" customFormat="1" ht="75">
       <c r="A40" s="31">
         <v>37</v>
       </c>
@@ -12324,7 +12322,7 @@
         <v>85</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="25" customFormat="1" ht="30">
@@ -12347,7 +12345,7 @@
         <v>85</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="25" customFormat="1" ht="45">
@@ -12370,10 +12368,10 @@
         <v>85</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="25" customFormat="1" ht="60">
       <c r="A43" s="31">
         <v>40</v>
       </c>
@@ -12393,7 +12391,7 @@
         <v>85</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="25" customFormat="1" ht="60">
@@ -12416,7 +12414,7 @@
         <v>85</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="25" customFormat="1" ht="90">
@@ -12439,7 +12437,7 @@
         <v>86</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="25" customFormat="1" ht="45">
@@ -12462,10 +12460,10 @@
         <v>87</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="25" customFormat="1" ht="75">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="25" customFormat="1" ht="90">
       <c r="A47" s="31">
         <v>44</v>
       </c>
@@ -12485,7 +12483,7 @@
         <v>88</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="25" customFormat="1" ht="60">
@@ -12508,7 +12506,7 @@
         <v>89</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="25" customFormat="1" ht="45">
@@ -12531,7 +12529,7 @@
         <v>90</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="25" customFormat="1" ht="75">
@@ -12554,7 +12552,7 @@
         <v>91</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="25" customFormat="1" ht="45">
@@ -12577,10 +12575,10 @@
         <v>92</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="25" customFormat="1" ht="75">
       <c r="A52" s="31">
         <v>49</v>
       </c>
@@ -12600,7 +12598,7 @@
         <v>102</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="25" customFormat="1" ht="75">
@@ -12623,7 +12621,7 @@
         <v>101</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="25" customFormat="1" ht="45">
@@ -12646,7 +12644,7 @@
         <v>21</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="25" customFormat="1" ht="45">
@@ -12669,7 +12667,7 @@
         <v>21</v>
       </c>
       <c r="G55" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="25" customFormat="1" ht="60">
@@ -12692,7 +12690,7 @@
         <v>21</v>
       </c>
       <c r="G56" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="25" customFormat="1" ht="60">
@@ -12715,10 +12713,10 @@
         <v>21</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="25" customFormat="1" ht="30">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="25" customFormat="1" ht="45">
       <c r="A58" s="31">
         <v>55</v>
       </c>
@@ -12738,7 +12736,7 @@
         <v>28</v>
       </c>
       <c r="G58" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="25" customFormat="1" ht="45">
@@ -12761,10 +12759,10 @@
         <v>28</v>
       </c>
       <c r="G59" s="42" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="25" customFormat="1" ht="135">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="25" customFormat="1" ht="150">
       <c r="A60" s="31">
         <v>57</v>
       </c>
@@ -12784,7 +12782,7 @@
         <v>28</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="25" customFormat="1" ht="30">
@@ -12807,7 +12805,7 @@
         <v>20</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="25" customFormat="1" ht="60">
@@ -12830,7 +12828,7 @@
         <v>20</v>
       </c>
       <c r="G62" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="25" customFormat="1" ht="60">
@@ -12853,7 +12851,7 @@
         <v>20</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="25" customFormat="1" ht="105">
@@ -12876,7 +12874,7 @@
         <v>20</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="25" customFormat="1" ht="105">
@@ -12899,7 +12897,7 @@
         <v>20</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="25" customFormat="1" ht="45">
@@ -12922,7 +12920,7 @@
         <v>20</v>
       </c>
       <c r="G66" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="25" customFormat="1" ht="45">
@@ -12945,7 +12943,7 @@
         <v>20</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="25" customFormat="1" ht="60">
@@ -12968,7 +12966,7 @@
         <v>20</v>
       </c>
       <c r="G68" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="25" customFormat="1" ht="45">
@@ -12991,7 +12989,7 @@
         <v>20</v>
       </c>
       <c r="G69" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="25" customFormat="1" ht="45">
@@ -13014,7 +13012,7 @@
         <v>20</v>
       </c>
       <c r="G70" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="25" customFormat="1" ht="90">
@@ -13034,10 +13032,10 @@
         <v>11</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="25" customFormat="1" ht="60">
@@ -13060,7 +13058,7 @@
         <v>109</v>
       </c>
       <c r="G72" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="25" customFormat="1" ht="105">
@@ -13080,10 +13078,10 @@
         <v>11</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G73" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="25" customFormat="1" ht="60">
@@ -13106,7 +13104,7 @@
         <v>105</v>
       </c>
       <c r="G74" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="25" customFormat="1" ht="75">
@@ -13129,7 +13127,7 @@
         <v>106</v>
       </c>
       <c r="G75" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="25" customFormat="1" ht="45">
@@ -13152,7 +13150,7 @@
         <v>84</v>
       </c>
       <c r="G76" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="25" customFormat="1" ht="135">
@@ -13172,10 +13170,10 @@
         <v>11</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="25" customFormat="1" ht="330">
@@ -13195,10 +13193,10 @@
         <v>11</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G78" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="25" customFormat="1" ht="45">
@@ -13221,7 +13219,7 @@
         <v>26</v>
       </c>
       <c r="G79" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="25" customFormat="1" ht="60">
@@ -13244,7 +13242,7 @@
         <v>111</v>
       </c>
       <c r="G80" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="25" customFormat="1" ht="45">
@@ -13270,7 +13268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="25" customFormat="1" ht="90">
+    <row r="82" spans="1:7" s="25" customFormat="1" ht="105">
       <c r="A82" s="31">
         <v>79</v>
       </c>
@@ -13287,13 +13285,13 @@
         <v>11</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G82" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="25" customFormat="1" ht="120">
+    <row r="83" spans="1:7" s="25" customFormat="1" ht="135">
       <c r="A83" s="31">
         <v>80</v>
       </c>
@@ -13310,13 +13308,13 @@
         <v>11</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G83" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="25" customFormat="1" ht="270">
+    <row r="84" spans="1:7" s="25" customFormat="1" ht="285">
       <c r="A84" s="31">
         <v>81</v>
       </c>
@@ -13333,7 +13331,7 @@
         <v>11</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G84" s="35" t="s">
         <v>35</v>
@@ -13359,7 +13357,7 @@
         <v>25</v>
       </c>
       <c r="G85" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="25" customFormat="1" ht="90">
@@ -13382,7 +13380,7 @@
         <v>25</v>
       </c>
       <c r="G86" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="25" customFormat="1" ht="180">
@@ -13402,7 +13400,7 @@
         <v>11</v>
       </c>
       <c r="F87" s="38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G87" s="35" t="s">
         <v>116</v>
@@ -13425,7 +13423,7 @@
         <v>11</v>
       </c>
       <c r="F88" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G88" s="35" t="s">
         <v>30</v>
@@ -13448,7 +13446,7 @@
         <v>11</v>
       </c>
       <c r="F89" s="38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G89" s="35" t="s">
         <v>34</v>
@@ -13471,7 +13469,7 @@
         <v>11</v>
       </c>
       <c r="F90" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G90" s="35" t="s">
         <v>37</v>
@@ -13494,7 +13492,7 @@
         <v>11</v>
       </c>
       <c r="F91" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G91" s="35" t="s">
         <v>33</v>
@@ -13517,7 +13515,7 @@
         <v>11</v>
       </c>
       <c r="F92" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G92" s="35" t="s">
         <v>35</v>
@@ -13540,7 +13538,7 @@
         <v>11</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G93" s="35" t="s">
         <v>38</v>
@@ -13563,7 +13561,7 @@
         <v>11</v>
       </c>
       <c r="F94" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G94" s="35" t="s">
         <v>39</v>
@@ -13586,7 +13584,7 @@
         <v>11</v>
       </c>
       <c r="F95" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G95" s="35" t="s">
         <v>116</v>
@@ -13609,7 +13607,7 @@
         <v>11</v>
       </c>
       <c r="F96" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G96" s="35" t="s">
         <v>30</v>
@@ -13632,7 +13630,7 @@
         <v>11</v>
       </c>
       <c r="F97" s="38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G97" s="35" t="s">
         <v>34</v>
@@ -13655,13 +13653,13 @@
         <v>11</v>
       </c>
       <c r="F98" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G98" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="25" customFormat="1" ht="75">
+    <row r="99" spans="1:7" s="25" customFormat="1" ht="90">
       <c r="A99" s="31">
         <v>96</v>
       </c>
@@ -13678,13 +13676,13 @@
         <v>11</v>
       </c>
       <c r="F99" s="38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G99" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="25" customFormat="1" ht="45">
+    <row r="100" spans="1:7" s="25" customFormat="1" ht="60">
       <c r="A100" s="31">
         <v>97</v>
       </c>
@@ -13701,13 +13699,13 @@
         <v>11</v>
       </c>
       <c r="F100" s="38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G100" s="35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="25" customFormat="1" ht="45">
+    <row r="101" spans="1:7" s="25" customFormat="1" ht="60">
       <c r="A101" s="31">
         <v>98</v>
       </c>
@@ -13724,10 +13722,10 @@
         <v>11</v>
       </c>
       <c r="F101" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G101" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="25" customFormat="1" ht="45">
@@ -13750,7 +13748,7 @@
         <v>107</v>
       </c>
       <c r="G102" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="25" customFormat="1" ht="60">
@@ -13770,13 +13768,13 @@
         <v>11</v>
       </c>
       <c r="F103" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G103" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="25" customFormat="1" ht="60">
+    <row r="104" spans="1:7" s="25" customFormat="1" ht="75">
       <c r="A104" s="31">
         <v>101</v>
       </c>
@@ -13793,7 +13791,7 @@
         <v>11</v>
       </c>
       <c r="F104" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G104" s="35" t="s">
         <v>33</v>
@@ -13816,7 +13814,7 @@
         <v>11</v>
       </c>
       <c r="F105" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G105" s="35" t="s">
         <v>35</v>
@@ -13839,7 +13837,7 @@
         <v>11</v>
       </c>
       <c r="F106" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G106" s="35" t="s">
         <v>30</v>
@@ -13862,10 +13860,10 @@
         <v>11</v>
       </c>
       <c r="F107" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G107" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="25" customFormat="1" ht="60">
@@ -13888,7 +13886,7 @@
         <v>108</v>
       </c>
       <c r="G108" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="25" customFormat="1" ht="60">
@@ -13908,7 +13906,7 @@
         <v>11</v>
       </c>
       <c r="F109" s="38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G109" s="35" t="s">
         <v>34</v>
@@ -13931,7 +13929,7 @@
         <v>11</v>
       </c>
       <c r="F110" s="38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G110" s="35" t="s">
         <v>33</v>
@@ -13957,7 +13955,7 @@
         <v>40</v>
       </c>
       <c r="G111" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="25" customFormat="1" ht="60">
@@ -13980,7 +13978,7 @@
         <v>24</v>
       </c>
       <c r="G112" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="25" customFormat="1" ht="45">
@@ -14003,7 +14001,7 @@
         <v>41</v>
       </c>
       <c r="G113" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="25" customFormat="1" ht="45">
@@ -14026,10 +14024,10 @@
         <v>14</v>
       </c>
       <c r="G114" s="35" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="25" customFormat="1" ht="75">
       <c r="A115" s="31">
         <v>112</v>
       </c>
@@ -14046,7 +14044,7 @@
         <v>11</v>
       </c>
       <c r="F115" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G115" s="35" t="s">
         <v>43</v>
@@ -14072,7 +14070,7 @@
         <v>44</v>
       </c>
       <c r="G116" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="25" customFormat="1" ht="90">
@@ -14092,7 +14090,7 @@
         <v>11</v>
       </c>
       <c r="F117" s="38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G117" s="35" t="s">
         <v>42</v>
@@ -14115,7 +14113,7 @@
         <v>11</v>
       </c>
       <c r="F118" s="38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G118" s="35" t="s">
         <v>45</v>
@@ -14161,7 +14159,7 @@
         <v>11</v>
       </c>
       <c r="F120" s="38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G120" s="35" t="s">
         <v>112</v>
@@ -14184,7 +14182,7 @@
         <v>11</v>
       </c>
       <c r="F121" s="38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G121" s="35" t="s">
         <v>33</v>
@@ -14210,7 +14208,7 @@
         <v>14</v>
       </c>
       <c r="G122" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="123" spans="1:7" s="25" customFormat="1" ht="45">
@@ -14233,7 +14231,7 @@
         <v>103</v>
       </c>
       <c r="G123" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="25" customFormat="1" ht="45">
@@ -14256,10 +14254,10 @@
         <v>104</v>
       </c>
       <c r="G124" s="35" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="25" customFormat="1" ht="60">
       <c r="A125" s="31">
         <v>122</v>
       </c>
@@ -14279,7 +14277,7 @@
         <v>48</v>
       </c>
       <c r="G125" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="126" spans="1:7" s="25" customFormat="1" ht="45">
@@ -14302,10 +14300,10 @@
         <v>16</v>
       </c>
       <c r="G126" s="35" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="25" customFormat="1" ht="75">
       <c r="A127" s="31">
         <v>124</v>
       </c>
@@ -14322,13 +14320,13 @@
         <v>11</v>
       </c>
       <c r="F127" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G127" s="35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="25" customFormat="1" ht="45">
+    <row r="128" spans="1:7" s="25" customFormat="1" ht="60">
       <c r="A128" s="31">
         <v>125</v>
       </c>
@@ -14348,7 +14346,7 @@
         <v>53</v>
       </c>
       <c r="G128" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="129" spans="1:7" s="25" customFormat="1" ht="45">
@@ -14371,7 +14369,7 @@
         <v>55</v>
       </c>
       <c r="G129" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="25" customFormat="1" ht="75">
@@ -14391,13 +14389,13 @@
         <v>11</v>
       </c>
       <c r="F130" s="38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G130" s="35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="25" customFormat="1" ht="45">
+    <row r="131" spans="1:7" s="25" customFormat="1" ht="60">
       <c r="A131" s="31">
         <v>128</v>
       </c>
@@ -14417,7 +14415,7 @@
         <v>57</v>
       </c>
       <c r="G131" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="25" customFormat="1" ht="60">
@@ -14437,7 +14435,7 @@
         <v>11</v>
       </c>
       <c r="F132" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G132" s="35" t="s">
         <v>35</v>
@@ -14463,7 +14461,7 @@
         <v>16</v>
       </c>
       <c r="G133" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="25" customFormat="1" ht="45">
@@ -14486,7 +14484,7 @@
         <v>61</v>
       </c>
       <c r="G134" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="135" spans="1:7" s="25" customFormat="1" ht="45">
@@ -14509,7 +14507,7 @@
         <v>59</v>
       </c>
       <c r="G135" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="136" spans="1:7" s="25" customFormat="1" ht="90">
@@ -14529,7 +14527,7 @@
         <v>11</v>
       </c>
       <c r="F136" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G136" s="35" t="s">
         <v>58</v>
@@ -14552,7 +14550,7 @@
         <v>11</v>
       </c>
       <c r="F137" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G137" s="35" t="s">
         <v>54</v>
@@ -14578,7 +14576,7 @@
         <v>60</v>
       </c>
       <c r="G138" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="60">
@@ -14598,7 +14596,7 @@
         <v>11</v>
       </c>
       <c r="F139" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G139" s="35" t="s">
         <v>69</v>
@@ -14621,13 +14619,13 @@
         <v>11</v>
       </c>
       <c r="F140" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G140" s="35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="45">
+    <row r="141" spans="1:7" ht="60">
       <c r="A141" s="31">
         <v>138</v>
       </c>
@@ -14647,7 +14645,7 @@
         <v>66</v>
       </c>
       <c r="G141" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="45">
@@ -14670,7 +14668,7 @@
         <v>64</v>
       </c>
       <c r="G142" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="105">
@@ -14690,7 +14688,7 @@
         <v>11</v>
       </c>
       <c r="F143" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G143" s="35" t="s">
         <v>42</v>
@@ -14713,7 +14711,7 @@
         <v>11</v>
       </c>
       <c r="F144" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G144" s="35" t="s">
         <v>65</v>
@@ -14736,7 +14734,7 @@
         <v>11</v>
       </c>
       <c r="F145" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G145" s="35" t="s">
         <v>68</v>
@@ -14759,7 +14757,7 @@
         <v>11</v>
       </c>
       <c r="F146" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G146" s="35" t="s">
         <v>67</v>
@@ -14785,7 +14783,7 @@
         <v>114</v>
       </c>
       <c r="G147" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="135">
@@ -14805,7 +14803,7 @@
         <v>11</v>
       </c>
       <c r="F148" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G148" s="35" t="s">
         <v>63</v>
@@ -14828,7 +14826,7 @@
         <v>11</v>
       </c>
       <c r="F149" s="38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G149" s="35" t="s">
         <v>37</v>
@@ -14851,7 +14849,7 @@
         <v>11</v>
       </c>
       <c r="F150" s="38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G150" s="35" t="s">
         <v>33</v>
@@ -14874,7 +14872,7 @@
         <v>11</v>
       </c>
       <c r="F151" s="38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G151" s="35" t="s">
         <v>35</v>
@@ -14897,13 +14895,13 @@
         <v>11</v>
       </c>
       <c r="F152" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G152" s="35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="90">
+    <row r="153" spans="1:7" ht="105">
       <c r="A153" s="31">
         <v>150</v>
       </c>
@@ -14923,7 +14921,7 @@
         <v>70</v>
       </c>
       <c r="G153" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="75">
@@ -14946,10 +14944,10 @@
         <v>70</v>
       </c>
       <c r="G154" s="35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="60">
       <c r="A155" s="31">
         <v>152</v>
       </c>
@@ -14969,7 +14967,7 @@
         <v>49</v>
       </c>
       <c r="G155" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="45">
@@ -14992,7 +14990,7 @@
         <v>18</v>
       </c>
       <c r="G156" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="60">
@@ -15015,10 +15013,10 @@
         <v>18</v>
       </c>
       <c r="G157" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="150">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="180">
       <c r="A158" s="31">
         <v>155</v>
       </c>
@@ -15035,7 +15033,7 @@
         <v>11</v>
       </c>
       <c r="F158" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G158" s="35" t="s">
         <v>43</v>
@@ -15058,7 +15056,7 @@
         <v>11</v>
       </c>
       <c r="F159" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G159" s="35" t="s">
         <v>110</v>
@@ -15081,13 +15079,13 @@
         <v>11</v>
       </c>
       <c r="F160" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G160" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="105">
+    <row r="161" spans="1:7" ht="135">
       <c r="A161" s="31">
         <v>158</v>
       </c>
@@ -15104,7 +15102,7 @@
         <v>11</v>
       </c>
       <c r="F161" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G161" s="35" t="s">
         <v>71</v>
@@ -15127,7 +15125,7 @@
         <v>11</v>
       </c>
       <c r="F162" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G162" s="35" t="s">
         <v>72</v>
@@ -15150,7 +15148,7 @@
         <v>11</v>
       </c>
       <c r="F163" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G163" s="35" t="s">
         <v>73</v>
@@ -15173,7 +15171,7 @@
         <v>11</v>
       </c>
       <c r="F164" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G164" s="35" t="s">
         <v>74</v>
@@ -15196,7 +15194,7 @@
         <v>11</v>
       </c>
       <c r="F165" s="38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G165" s="35" t="s">
         <v>98</v>
@@ -15219,7 +15217,7 @@
         <v>11</v>
       </c>
       <c r="F166" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G166" s="35" t="s">
         <v>75</v>
@@ -15242,7 +15240,7 @@
         <v>11</v>
       </c>
       <c r="F167" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G167" s="35" t="s">
         <v>46</v>
@@ -15265,7 +15263,7 @@
         <v>11</v>
       </c>
       <c r="F168" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G168" s="35" t="s">
         <v>36</v>
@@ -15288,7 +15286,7 @@
         <v>11</v>
       </c>
       <c r="F169" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G169" s="35" t="s">
         <v>39</v>
@@ -15311,7 +15309,7 @@
         <v>11</v>
       </c>
       <c r="F170" s="38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G170" s="35" t="s">
         <v>117</v>
@@ -15337,7 +15335,7 @@
         <v>29</v>
       </c>
       <c r="G171" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="45">
@@ -15360,7 +15358,7 @@
         <v>51</v>
       </c>
       <c r="G172" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="45">
@@ -15383,7 +15381,7 @@
         <v>29</v>
       </c>
       <c r="G173" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="45">
@@ -15403,7 +15401,7 @@
         <v>11</v>
       </c>
       <c r="F174" s="38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G174" s="35" t="s">
         <v>43</v>
@@ -15429,7 +15427,7 @@
         <v>78</v>
       </c>
       <c r="G175" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="60">
@@ -15452,10 +15450,10 @@
         <v>77</v>
       </c>
       <c r="G176" s="35" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="60">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="75">
       <c r="A177" s="31">
         <v>174</v>
       </c>
@@ -15475,7 +15473,7 @@
         <v>78</v>
       </c>
       <c r="G177" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="75">
@@ -15498,7 +15496,7 @@
         <v>79</v>
       </c>
       <c r="G178" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="60">
@@ -15521,7 +15519,7 @@
         <v>113</v>
       </c>
       <c r="G179" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="75">
@@ -15544,10 +15542,10 @@
         <v>29</v>
       </c>
       <c r="G180" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="45">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="60">
       <c r="A181" s="31">
         <v>178</v>
       </c>
@@ -15567,7 +15565,7 @@
         <v>50</v>
       </c>
       <c r="G181" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="45">
@@ -15590,7 +15588,7 @@
         <v>17</v>
       </c>
       <c r="G182" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="45">
@@ -15610,7 +15608,7 @@
         <v>11</v>
       </c>
       <c r="F183" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G183" s="35" t="s">
         <v>43</v>
@@ -15633,7 +15631,7 @@
         <v>11</v>
       </c>
       <c r="F184" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G184" s="35" t="s">
         <v>81</v>
@@ -15659,7 +15657,7 @@
         <v>80</v>
       </c>
       <c r="G185" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="60">
@@ -15679,13 +15677,13 @@
         <v>11</v>
       </c>
       <c r="F186" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G186" s="35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="45">
+    <row r="187" spans="1:7" ht="60">
       <c r="A187" s="31">
         <v>184</v>
       </c>
@@ -15705,7 +15703,7 @@
         <v>82</v>
       </c>
       <c r="G187" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="45">
@@ -15728,7 +15726,7 @@
         <v>22</v>
       </c>
       <c r="G188" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="90">
@@ -15751,7 +15749,7 @@
         <v>17</v>
       </c>
       <c r="G189" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="45">
@@ -15774,7 +15772,7 @@
         <v>83</v>
       </c>
       <c r="G190" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="45">
@@ -15797,7 +15795,7 @@
         <v>22</v>
       </c>
       <c r="G191" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="60">
@@ -15820,7 +15818,7 @@
         <v>52</v>
       </c>
       <c r="G192" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="45">
@@ -15843,7 +15841,7 @@
         <v>15</v>
       </c>
       <c r="G193" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/docs/テスト種別&観点カタログ変更履歴_第1.1版以前.xlsx
+++ b/docs/テスト種別&観点カタログ変更履歴_第1.1版以前.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8C3D2D-5B92-4FE8-B796-0BA4D8CF269A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="60" windowWidth="20580" windowHeight="12120" tabRatio="823"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="823" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="311">
   <si>
     <t>変更内容</t>
     <rPh sb="0" eb="2">
@@ -1555,14 +1556,6 @@
   </si>
   <si>
     <t>の下に提供されています。</t>
-  </si>
-  <si>
-    <t>2018年8月16日</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>第1.2版</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">(新規作成)
@@ -5984,11 +5977,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -6070,12 +6063,6 @@
     <font>
       <sz val="14"/>
       <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -6694,26 +6681,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6722,1486 +6727,1468 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -8271,7 +8258,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -8285,11 +8272,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -8302,20 +8289,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8349,19 +8336,19 @@
     <xf numFmtId="31" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="15" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="14" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8370,7 +8357,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8379,650 +8366,650 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="560">
-    <cellStyle name="20% - アクセント 1 2" xfId="7"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="8"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="9"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="10"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="11"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="12"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="13"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="14"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="15"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="16"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="17"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="18"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="19"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="20"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="21"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="22"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="23"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="24"/>
-    <cellStyle name="Calc Currency (0)" xfId="25"/>
-    <cellStyle name="Header1" xfId="26"/>
-    <cellStyle name="Header2" xfId="27"/>
-    <cellStyle name="Header2 2" xfId="28"/>
-    <cellStyle name="Header2 2 10" xfId="29"/>
-    <cellStyle name="Header2 2 10 2" xfId="30"/>
-    <cellStyle name="Header2 2 11" xfId="31"/>
-    <cellStyle name="Header2 2 11 2" xfId="32"/>
-    <cellStyle name="Header2 2 12" xfId="33"/>
-    <cellStyle name="Header2 2 12 2" xfId="34"/>
-    <cellStyle name="Header2 2 13" xfId="35"/>
-    <cellStyle name="Header2 2 2" xfId="36"/>
-    <cellStyle name="Header2 2 2 2" xfId="37"/>
-    <cellStyle name="Header2 2 2 2 2" xfId="38"/>
-    <cellStyle name="Header2 2 2 3" xfId="39"/>
-    <cellStyle name="Header2 2 2 3 2" xfId="40"/>
-    <cellStyle name="Header2 2 2 4" xfId="41"/>
-    <cellStyle name="Header2 2 2 4 2" xfId="42"/>
-    <cellStyle name="Header2 2 2 5" xfId="43"/>
-    <cellStyle name="Header2 2 2 5 2" xfId="44"/>
-    <cellStyle name="Header2 2 2 6" xfId="45"/>
-    <cellStyle name="Header2 2 2 6 2" xfId="46"/>
-    <cellStyle name="Header2 2 2 7" xfId="47"/>
-    <cellStyle name="Header2 2 3" xfId="48"/>
-    <cellStyle name="Header2 2 4" xfId="49"/>
-    <cellStyle name="Header2 2 4 2" xfId="50"/>
-    <cellStyle name="Header2 2 4 2 2" xfId="51"/>
-    <cellStyle name="Header2 2 4 3" xfId="52"/>
-    <cellStyle name="Header2 2 4 3 2" xfId="53"/>
-    <cellStyle name="Header2 2 4 4" xfId="54"/>
-    <cellStyle name="Header2 2 4 4 2" xfId="55"/>
-    <cellStyle name="Header2 2 4 5" xfId="56"/>
-    <cellStyle name="Header2 2 4 5 2" xfId="57"/>
-    <cellStyle name="Header2 2 4 6" xfId="58"/>
-    <cellStyle name="Header2 2 4 6 2" xfId="59"/>
-    <cellStyle name="Header2 2 4 7" xfId="60"/>
-    <cellStyle name="Header2 2 5" xfId="61"/>
-    <cellStyle name="Header2 2 5 2" xfId="62"/>
-    <cellStyle name="Header2 2 5 2 2" xfId="63"/>
-    <cellStyle name="Header2 2 5 3" xfId="64"/>
-    <cellStyle name="Header2 2 5 3 2" xfId="65"/>
-    <cellStyle name="Header2 2 5 4" xfId="66"/>
-    <cellStyle name="Header2 2 5 4 2" xfId="67"/>
-    <cellStyle name="Header2 2 5 5" xfId="68"/>
-    <cellStyle name="Header2 2 5 5 2" xfId="69"/>
-    <cellStyle name="Header2 2 5 6" xfId="70"/>
-    <cellStyle name="Header2 2 5 6 2" xfId="71"/>
-    <cellStyle name="Header2 2 5 7" xfId="72"/>
-    <cellStyle name="Header2 2 6" xfId="73"/>
-    <cellStyle name="Header2 2 6 2" xfId="74"/>
-    <cellStyle name="Header2 2 6 2 2" xfId="75"/>
-    <cellStyle name="Header2 2 6 3" xfId="76"/>
-    <cellStyle name="Header2 2 6 3 2" xfId="77"/>
-    <cellStyle name="Header2 2 6 4" xfId="78"/>
-    <cellStyle name="Header2 2 6 4 2" xfId="79"/>
-    <cellStyle name="Header2 2 6 5" xfId="80"/>
-    <cellStyle name="Header2 2 6 5 2" xfId="81"/>
-    <cellStyle name="Header2 2 6 6" xfId="82"/>
-    <cellStyle name="Header2 2 6 6 2" xfId="83"/>
-    <cellStyle name="Header2 2 6 7" xfId="84"/>
-    <cellStyle name="Header2 2 7" xfId="85"/>
-    <cellStyle name="Header2 2 7 2" xfId="86"/>
-    <cellStyle name="Header2 2 7 2 2" xfId="87"/>
-    <cellStyle name="Header2 2 7 3" xfId="88"/>
-    <cellStyle name="Header2 2 7 3 2" xfId="89"/>
-    <cellStyle name="Header2 2 7 4" xfId="90"/>
-    <cellStyle name="Header2 2 7 4 2" xfId="91"/>
-    <cellStyle name="Header2 2 7 5" xfId="92"/>
-    <cellStyle name="Header2 2 7 5 2" xfId="93"/>
-    <cellStyle name="Header2 2 7 6" xfId="94"/>
-    <cellStyle name="Header2 2 7 6 2" xfId="95"/>
-    <cellStyle name="Header2 2 7 7" xfId="96"/>
-    <cellStyle name="Header2 2 8" xfId="97"/>
-    <cellStyle name="Header2 2 8 2" xfId="98"/>
-    <cellStyle name="Header2 2 9" xfId="99"/>
-    <cellStyle name="Header2 2 9 2" xfId="100"/>
-    <cellStyle name="Header2 3" xfId="101"/>
-    <cellStyle name="Header2 3 10" xfId="102"/>
-    <cellStyle name="Header2 3 10 2" xfId="103"/>
-    <cellStyle name="Header2 3 11" xfId="104"/>
-    <cellStyle name="Header2 3 11 2" xfId="105"/>
-    <cellStyle name="Header2 3 12" xfId="106"/>
-    <cellStyle name="Header2 3 2" xfId="107"/>
-    <cellStyle name="Header2 3 2 2" xfId="108"/>
-    <cellStyle name="Header2 3 2 2 2" xfId="109"/>
-    <cellStyle name="Header2 3 2 3" xfId="110"/>
-    <cellStyle name="Header2 3 2 3 2" xfId="111"/>
-    <cellStyle name="Header2 3 2 4" xfId="112"/>
-    <cellStyle name="Header2 3 2 4 2" xfId="113"/>
-    <cellStyle name="Header2 3 2 5" xfId="114"/>
-    <cellStyle name="Header2 3 2 5 2" xfId="115"/>
-    <cellStyle name="Header2 3 2 6" xfId="116"/>
-    <cellStyle name="Header2 3 2 6 2" xfId="117"/>
-    <cellStyle name="Header2 3 2 7" xfId="118"/>
-    <cellStyle name="Header2 3 3" xfId="119"/>
-    <cellStyle name="Header2 3 3 2" xfId="120"/>
-    <cellStyle name="Header2 3 3 2 2" xfId="121"/>
-    <cellStyle name="Header2 3 3 3" xfId="122"/>
-    <cellStyle name="Header2 3 3 3 2" xfId="123"/>
-    <cellStyle name="Header2 3 3 4" xfId="124"/>
-    <cellStyle name="Header2 3 3 4 2" xfId="125"/>
-    <cellStyle name="Header2 3 3 5" xfId="126"/>
-    <cellStyle name="Header2 3 3 5 2" xfId="127"/>
-    <cellStyle name="Header2 3 3 6" xfId="128"/>
-    <cellStyle name="Header2 3 3 6 2" xfId="129"/>
-    <cellStyle name="Header2 3 3 7" xfId="130"/>
-    <cellStyle name="Header2 3 4" xfId="131"/>
-    <cellStyle name="Header2 3 4 2" xfId="132"/>
-    <cellStyle name="Header2 3 4 2 2" xfId="133"/>
-    <cellStyle name="Header2 3 4 3" xfId="134"/>
-    <cellStyle name="Header2 3 4 3 2" xfId="135"/>
-    <cellStyle name="Header2 3 4 4" xfId="136"/>
-    <cellStyle name="Header2 3 4 4 2" xfId="137"/>
-    <cellStyle name="Header2 3 4 5" xfId="138"/>
-    <cellStyle name="Header2 3 4 5 2" xfId="139"/>
-    <cellStyle name="Header2 3 4 6" xfId="140"/>
-    <cellStyle name="Header2 3 4 6 2" xfId="141"/>
-    <cellStyle name="Header2 3 4 7" xfId="142"/>
-    <cellStyle name="Header2 3 5" xfId="143"/>
-    <cellStyle name="Header2 3 5 2" xfId="144"/>
-    <cellStyle name="Header2 3 5 2 2" xfId="145"/>
-    <cellStyle name="Header2 3 5 3" xfId="146"/>
-    <cellStyle name="Header2 3 5 3 2" xfId="147"/>
-    <cellStyle name="Header2 3 5 4" xfId="148"/>
-    <cellStyle name="Header2 3 5 4 2" xfId="149"/>
-    <cellStyle name="Header2 3 5 5" xfId="150"/>
-    <cellStyle name="Header2 3 5 5 2" xfId="151"/>
-    <cellStyle name="Header2 3 5 6" xfId="152"/>
-    <cellStyle name="Header2 3 5 6 2" xfId="153"/>
-    <cellStyle name="Header2 3 5 7" xfId="154"/>
-    <cellStyle name="Header2 3 6" xfId="155"/>
-    <cellStyle name="Header2 3 6 2" xfId="156"/>
-    <cellStyle name="Header2 3 6 2 2" xfId="157"/>
-    <cellStyle name="Header2 3 6 3" xfId="158"/>
-    <cellStyle name="Header2 3 6 3 2" xfId="159"/>
-    <cellStyle name="Header2 3 6 4" xfId="160"/>
-    <cellStyle name="Header2 3 6 4 2" xfId="161"/>
-    <cellStyle name="Header2 3 6 5" xfId="162"/>
-    <cellStyle name="Header2 3 6 5 2" xfId="163"/>
-    <cellStyle name="Header2 3 6 6" xfId="164"/>
-    <cellStyle name="Header2 3 6 6 2" xfId="165"/>
-    <cellStyle name="Header2 3 6 7" xfId="166"/>
-    <cellStyle name="Header2 3 7" xfId="167"/>
-    <cellStyle name="Header2 3 7 2" xfId="168"/>
-    <cellStyle name="Header2 3 8" xfId="169"/>
-    <cellStyle name="Header2 3 8 2" xfId="170"/>
-    <cellStyle name="Header2 3 9" xfId="171"/>
-    <cellStyle name="Header2 3 9 2" xfId="172"/>
-    <cellStyle name="Normal_#18-Internet" xfId="173"/>
-    <cellStyle name="アクセント 1 2" xfId="174"/>
-    <cellStyle name="アクセント 2 2" xfId="175"/>
-    <cellStyle name="アクセント 3 2" xfId="176"/>
-    <cellStyle name="アクセント 4 2" xfId="177"/>
-    <cellStyle name="アクセント 5 2" xfId="178"/>
-    <cellStyle name="アクセント 6 2" xfId="179"/>
-    <cellStyle name="タイトル 2" xfId="180"/>
-    <cellStyle name="チェック セル 2" xfId="181"/>
-    <cellStyle name="どちらでもない 2" xfId="182"/>
-    <cellStyle name="パーセント 2" xfId="183"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="25" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Header1" xfId="26" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Header2" xfId="27" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Header2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Header2 2 10" xfId="29" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Header2 2 10 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Header2 2 11" xfId="31" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Header2 2 11 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Header2 2 12" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Header2 2 12 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Header2 2 13" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Header2 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Header2 2 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Header2 2 2 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Header2 2 2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Header2 2 2 3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Header2 2 2 4" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Header2 2 2 4 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Header2 2 2 5" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Header2 2 2 5 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Header2 2 2 6" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Header2 2 2 6 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Header2 2 2 7" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Header2 2 3" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Header2 2 4" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Header2 2 4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Header2 2 4 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Header2 2 4 3" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Header2 2 4 3 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Header2 2 4 4" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Header2 2 4 4 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Header2 2 4 5" xfId="56" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Header2 2 4 5 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Header2 2 4 6" xfId="58" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Header2 2 4 6 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Header2 2 4 7" xfId="60" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header2 2 5" xfId="61" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Header2 2 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Header2 2 5 2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Header2 2 5 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Header2 2 5 3 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Header2 2 5 4" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Header2 2 5 4 2" xfId="67" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Header2 2 5 5" xfId="68" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Header2 2 5 5 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Header2 2 5 6" xfId="70" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Header2 2 5 6 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Header2 2 5 7" xfId="72" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Header2 2 6" xfId="73" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Header2 2 6 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Header2 2 6 2 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Header2 2 6 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Header2 2 6 3 2" xfId="77" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Header2 2 6 4" xfId="78" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Header2 2 6 4 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Header2 2 6 5" xfId="80" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Header2 2 6 5 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Header2 2 6 6" xfId="82" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Header2 2 6 6 2" xfId="83" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Header2 2 6 7" xfId="84" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Header2 2 7" xfId="85" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Header2 2 7 2" xfId="86" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Header2 2 7 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Header2 2 7 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Header2 2 7 3 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Header2 2 7 4" xfId="90" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Header2 2 7 4 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Header2 2 7 5" xfId="92" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Header2 2 7 5 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Header2 2 7 6" xfId="94" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Header2 2 7 6 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Header2 2 7 7" xfId="96" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Header2 2 8" xfId="97" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Header2 2 8 2" xfId="98" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Header2 2 9" xfId="99" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Header2 2 9 2" xfId="100" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Header2 3" xfId="101" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Header2 3 10" xfId="102" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Header2 3 10 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Header2 3 11" xfId="104" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Header2 3 11 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Header2 3 12" xfId="106" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Header2 3 2" xfId="107" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Header2 3 2 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Header2 3 2 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Header2 3 2 3" xfId="110" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Header2 3 2 3 2" xfId="111" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Header2 3 2 4" xfId="112" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Header2 3 2 4 2" xfId="113" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Header2 3 2 5" xfId="114" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Header2 3 2 5 2" xfId="115" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Header2 3 2 6" xfId="116" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Header2 3 2 6 2" xfId="117" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Header2 3 2 7" xfId="118" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Header2 3 3" xfId="119" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Header2 3 3 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Header2 3 3 2 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Header2 3 3 3" xfId="122" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Header2 3 3 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Header2 3 3 4" xfId="124" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Header2 3 3 4 2" xfId="125" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Header2 3 3 5" xfId="126" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Header2 3 3 5 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Header2 3 3 6" xfId="128" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Header2 3 3 6 2" xfId="129" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Header2 3 3 7" xfId="130" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Header2 3 4" xfId="131" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Header2 3 4 2" xfId="132" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Header2 3 4 2 2" xfId="133" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Header2 3 4 3" xfId="134" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Header2 3 4 3 2" xfId="135" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Header2 3 4 4" xfId="136" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Header2 3 4 4 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Header2 3 4 5" xfId="138" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Header2 3 4 5 2" xfId="139" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Header2 3 4 6" xfId="140" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Header2 3 4 6 2" xfId="141" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Header2 3 4 7" xfId="142" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Header2 3 5" xfId="143" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Header2 3 5 2" xfId="144" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Header2 3 5 2 2" xfId="145" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Header2 3 5 3" xfId="146" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Header2 3 5 3 2" xfId="147" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Header2 3 5 4" xfId="148" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Header2 3 5 4 2" xfId="149" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Header2 3 5 5" xfId="150" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Header2 3 5 5 2" xfId="151" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Header2 3 5 6" xfId="152" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Header2 3 5 6 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Header2 3 5 7" xfId="154" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Header2 3 6" xfId="155" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Header2 3 6 2" xfId="156" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Header2 3 6 2 2" xfId="157" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Header2 3 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Header2 3 6 3 2" xfId="159" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Header2 3 6 4" xfId="160" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Header2 3 6 4 2" xfId="161" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Header2 3 6 5" xfId="162" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Header2 3 6 5 2" xfId="163" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Header2 3 6 6" xfId="164" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Header2 3 6 6 2" xfId="165" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Header2 3 6 7" xfId="166" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Header2 3 7" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Header2 3 7 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Header2 3 8" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Header2 3 8 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Header2 3 9" xfId="171" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Header2 3 9 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Normal_#18-Internet" xfId="173" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="アクセント 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="アクセント 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="アクセント 3 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="アクセント 4 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="アクセント 5 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="アクセント 6 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="タイトル 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="チェック セル 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="どちらでもない 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="パーセント 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
     <cellStyle name="ハイパーリンク" xfId="6" builtinId="8"/>
-    <cellStyle name="メモ 2" xfId="184"/>
-    <cellStyle name="メモ 2 2" xfId="185"/>
-    <cellStyle name="メモ 2 2 2" xfId="186"/>
-    <cellStyle name="メモ 2 2 2 2" xfId="187"/>
-    <cellStyle name="メモ 2 2 2 2 2" xfId="188"/>
-    <cellStyle name="メモ 2 2 2 3" xfId="189"/>
-    <cellStyle name="メモ 2 2 2 3 2" xfId="190"/>
-    <cellStyle name="メモ 2 2 2 4" xfId="191"/>
-    <cellStyle name="メモ 2 2 2 4 2" xfId="192"/>
-    <cellStyle name="メモ 2 2 2 5" xfId="193"/>
-    <cellStyle name="メモ 2 2 2 5 2" xfId="194"/>
-    <cellStyle name="メモ 2 2 2 6" xfId="195"/>
-    <cellStyle name="メモ 2 2 2 6 2" xfId="196"/>
-    <cellStyle name="メモ 2 2 2 7" xfId="197"/>
-    <cellStyle name="メモ 2 2 3" xfId="198"/>
-    <cellStyle name="メモ 2 2 3 2" xfId="199"/>
-    <cellStyle name="メモ 2 2 3 2 2" xfId="200"/>
-    <cellStyle name="メモ 2 2 3 3" xfId="201"/>
-    <cellStyle name="メモ 2 2 3 3 2" xfId="202"/>
-    <cellStyle name="メモ 2 2 3 4" xfId="203"/>
-    <cellStyle name="メモ 2 2 3 4 2" xfId="204"/>
-    <cellStyle name="メモ 2 2 3 5" xfId="205"/>
-    <cellStyle name="メモ 2 2 3 5 2" xfId="206"/>
-    <cellStyle name="メモ 2 2 3 6" xfId="207"/>
-    <cellStyle name="メモ 2 2 3 6 2" xfId="208"/>
-    <cellStyle name="メモ 2 2 3 7" xfId="209"/>
-    <cellStyle name="メモ 2 2 4" xfId="210"/>
-    <cellStyle name="メモ 2 2 4 2" xfId="211"/>
-    <cellStyle name="メモ 2 2 4 2 2" xfId="212"/>
-    <cellStyle name="メモ 2 2 4 3" xfId="213"/>
-    <cellStyle name="メモ 2 2 4 3 2" xfId="214"/>
-    <cellStyle name="メモ 2 2 4 4" xfId="215"/>
-    <cellStyle name="メモ 2 2 4 4 2" xfId="216"/>
-    <cellStyle name="メモ 2 2 4 5" xfId="217"/>
-    <cellStyle name="メモ 2 2 4 5 2" xfId="218"/>
-    <cellStyle name="メモ 2 2 4 6" xfId="219"/>
-    <cellStyle name="メモ 2 2 4 6 2" xfId="220"/>
-    <cellStyle name="メモ 2 2 4 7" xfId="221"/>
-    <cellStyle name="メモ 2 2 5" xfId="222"/>
-    <cellStyle name="メモ 2 2 5 2" xfId="223"/>
-    <cellStyle name="メモ 2 2 5 2 2" xfId="224"/>
-    <cellStyle name="メモ 2 2 5 3" xfId="225"/>
-    <cellStyle name="メモ 2 2 5 3 2" xfId="226"/>
-    <cellStyle name="メモ 2 2 5 4" xfId="227"/>
-    <cellStyle name="メモ 2 2 5 4 2" xfId="228"/>
-    <cellStyle name="メモ 2 2 5 5" xfId="229"/>
-    <cellStyle name="メモ 2 2 5 5 2" xfId="230"/>
-    <cellStyle name="メモ 2 2 5 6" xfId="231"/>
-    <cellStyle name="メモ 2 2 5 6 2" xfId="232"/>
-    <cellStyle name="メモ 2 2 5 7" xfId="233"/>
-    <cellStyle name="メモ 2 2 6" xfId="234"/>
-    <cellStyle name="メモ 2 2 6 2" xfId="235"/>
-    <cellStyle name="メモ 2 2 6 2 2" xfId="236"/>
-    <cellStyle name="メモ 2 2 6 3" xfId="237"/>
-    <cellStyle name="メモ 2 2 6 3 2" xfId="238"/>
-    <cellStyle name="メモ 2 2 6 4" xfId="239"/>
-    <cellStyle name="メモ 2 2 6 4 2" xfId="240"/>
-    <cellStyle name="メモ 2 2 6 5" xfId="241"/>
-    <cellStyle name="メモ 2 2 6 5 2" xfId="242"/>
-    <cellStyle name="メモ 2 2 6 6" xfId="243"/>
-    <cellStyle name="メモ 2 2 7" xfId="244"/>
-    <cellStyle name="メモ 2 2 7 2" xfId="245"/>
-    <cellStyle name="メモ 2 2 8" xfId="246"/>
-    <cellStyle name="メモ 2 3" xfId="247"/>
-    <cellStyle name="リンク セル 2" xfId="248"/>
-    <cellStyle name="悪い 2" xfId="249"/>
-    <cellStyle name="計算 2" xfId="250"/>
-    <cellStyle name="計算 2 2" xfId="251"/>
-    <cellStyle name="計算 2 2 2" xfId="252"/>
-    <cellStyle name="計算 2 2 2 2" xfId="253"/>
-    <cellStyle name="計算 2 2 2 2 2" xfId="254"/>
-    <cellStyle name="計算 2 2 2 3" xfId="255"/>
-    <cellStyle name="計算 2 2 2 3 2" xfId="256"/>
-    <cellStyle name="計算 2 2 2 4" xfId="257"/>
-    <cellStyle name="計算 2 2 2 4 2" xfId="258"/>
-    <cellStyle name="計算 2 2 2 5" xfId="259"/>
-    <cellStyle name="計算 2 2 2 5 2" xfId="260"/>
-    <cellStyle name="計算 2 2 2 6" xfId="261"/>
-    <cellStyle name="計算 2 2 2 6 2" xfId="262"/>
-    <cellStyle name="計算 2 2 2 7" xfId="263"/>
-    <cellStyle name="計算 2 2 3" xfId="264"/>
-    <cellStyle name="計算 2 2 3 2" xfId="265"/>
-    <cellStyle name="計算 2 2 3 2 2" xfId="266"/>
-    <cellStyle name="計算 2 2 3 3" xfId="267"/>
-    <cellStyle name="計算 2 2 3 3 2" xfId="268"/>
-    <cellStyle name="計算 2 2 3 4" xfId="269"/>
-    <cellStyle name="計算 2 2 3 4 2" xfId="270"/>
-    <cellStyle name="計算 2 2 3 5" xfId="271"/>
-    <cellStyle name="計算 2 2 3 5 2" xfId="272"/>
-    <cellStyle name="計算 2 2 3 6" xfId="273"/>
-    <cellStyle name="計算 2 2 3 6 2" xfId="274"/>
-    <cellStyle name="計算 2 2 3 7" xfId="275"/>
-    <cellStyle name="計算 2 2 4" xfId="276"/>
-    <cellStyle name="計算 2 2 4 2" xfId="277"/>
-    <cellStyle name="計算 2 2 4 2 2" xfId="278"/>
-    <cellStyle name="計算 2 2 4 3" xfId="279"/>
-    <cellStyle name="計算 2 2 4 3 2" xfId="280"/>
-    <cellStyle name="計算 2 2 4 4" xfId="281"/>
-    <cellStyle name="計算 2 2 4 4 2" xfId="282"/>
-    <cellStyle name="計算 2 2 4 5" xfId="283"/>
-    <cellStyle name="計算 2 2 4 5 2" xfId="284"/>
-    <cellStyle name="計算 2 2 4 6" xfId="285"/>
-    <cellStyle name="計算 2 2 4 6 2" xfId="286"/>
-    <cellStyle name="計算 2 2 4 7" xfId="287"/>
-    <cellStyle name="計算 2 2 5" xfId="288"/>
-    <cellStyle name="計算 2 2 5 2" xfId="289"/>
-    <cellStyle name="計算 2 2 5 2 2" xfId="290"/>
-    <cellStyle name="計算 2 2 5 3" xfId="291"/>
-    <cellStyle name="計算 2 2 5 3 2" xfId="292"/>
-    <cellStyle name="計算 2 2 5 4" xfId="293"/>
-    <cellStyle name="計算 2 2 5 4 2" xfId="294"/>
-    <cellStyle name="計算 2 2 5 5" xfId="295"/>
-    <cellStyle name="計算 2 2 5 5 2" xfId="296"/>
-    <cellStyle name="計算 2 2 5 6" xfId="297"/>
-    <cellStyle name="計算 2 2 5 6 2" xfId="298"/>
-    <cellStyle name="計算 2 2 5 7" xfId="299"/>
-    <cellStyle name="計算 2 2 6" xfId="300"/>
-    <cellStyle name="計算 2 2 6 2" xfId="301"/>
-    <cellStyle name="計算 2 2 6 2 2" xfId="302"/>
-    <cellStyle name="計算 2 2 6 3" xfId="303"/>
-    <cellStyle name="計算 2 2 6 3 2" xfId="304"/>
-    <cellStyle name="計算 2 2 6 4" xfId="305"/>
-    <cellStyle name="計算 2 2 6 4 2" xfId="306"/>
-    <cellStyle name="計算 2 2 6 5" xfId="307"/>
-    <cellStyle name="計算 2 2 6 5 2" xfId="308"/>
-    <cellStyle name="計算 2 2 6 6" xfId="309"/>
-    <cellStyle name="計算 2 2 7" xfId="310"/>
-    <cellStyle name="計算 2 2 7 2" xfId="311"/>
-    <cellStyle name="計算 2 2 8" xfId="312"/>
-    <cellStyle name="計算 2 3" xfId="313"/>
-    <cellStyle name="警告文 2" xfId="314"/>
-    <cellStyle name="見出し 1 2" xfId="315"/>
-    <cellStyle name="見出し 2 2" xfId="316"/>
-    <cellStyle name="見出し 3 2" xfId="317"/>
-    <cellStyle name="見出し 4 2" xfId="318"/>
-    <cellStyle name="集計 2" xfId="319"/>
-    <cellStyle name="集計 2 2" xfId="320"/>
-    <cellStyle name="集計 2 2 2" xfId="321"/>
-    <cellStyle name="集計 2 2 2 2" xfId="322"/>
-    <cellStyle name="集計 2 2 2 2 2" xfId="323"/>
-    <cellStyle name="集計 2 2 2 3" xfId="324"/>
-    <cellStyle name="集計 2 2 2 3 2" xfId="325"/>
-    <cellStyle name="集計 2 2 2 4" xfId="326"/>
-    <cellStyle name="集計 2 2 2 4 2" xfId="327"/>
-    <cellStyle name="集計 2 2 2 5" xfId="328"/>
-    <cellStyle name="集計 2 2 2 5 2" xfId="329"/>
-    <cellStyle name="集計 2 2 2 6" xfId="330"/>
-    <cellStyle name="集計 2 2 2 6 2" xfId="331"/>
-    <cellStyle name="集計 2 2 2 7" xfId="332"/>
-    <cellStyle name="集計 2 2 3" xfId="333"/>
-    <cellStyle name="集計 2 2 3 2" xfId="334"/>
-    <cellStyle name="集計 2 2 3 2 2" xfId="335"/>
-    <cellStyle name="集計 2 2 3 3" xfId="336"/>
-    <cellStyle name="集計 2 2 3 3 2" xfId="337"/>
-    <cellStyle name="集計 2 2 3 4" xfId="338"/>
-    <cellStyle name="集計 2 2 3 4 2" xfId="339"/>
-    <cellStyle name="集計 2 2 3 5" xfId="340"/>
-    <cellStyle name="集計 2 2 3 5 2" xfId="341"/>
-    <cellStyle name="集計 2 2 3 6" xfId="342"/>
-    <cellStyle name="集計 2 2 3 6 2" xfId="343"/>
-    <cellStyle name="集計 2 2 3 7" xfId="344"/>
-    <cellStyle name="集計 2 2 4" xfId="345"/>
-    <cellStyle name="集計 2 2 4 2" xfId="346"/>
-    <cellStyle name="集計 2 2 4 2 2" xfId="347"/>
-    <cellStyle name="集計 2 2 4 3" xfId="348"/>
-    <cellStyle name="集計 2 2 4 3 2" xfId="349"/>
-    <cellStyle name="集計 2 2 4 4" xfId="350"/>
-    <cellStyle name="集計 2 2 4 4 2" xfId="351"/>
-    <cellStyle name="集計 2 2 4 5" xfId="352"/>
-    <cellStyle name="集計 2 2 4 5 2" xfId="353"/>
-    <cellStyle name="集計 2 2 4 6" xfId="354"/>
-    <cellStyle name="集計 2 2 4 6 2" xfId="355"/>
-    <cellStyle name="集計 2 2 4 7" xfId="356"/>
-    <cellStyle name="集計 2 2 5" xfId="357"/>
-    <cellStyle name="集計 2 2 5 2" xfId="358"/>
-    <cellStyle name="集計 2 2 5 2 2" xfId="359"/>
-    <cellStyle name="集計 2 2 5 3" xfId="360"/>
-    <cellStyle name="集計 2 2 5 3 2" xfId="361"/>
-    <cellStyle name="集計 2 2 5 4" xfId="362"/>
-    <cellStyle name="集計 2 2 5 4 2" xfId="363"/>
-    <cellStyle name="集計 2 2 5 5" xfId="364"/>
-    <cellStyle name="集計 2 2 5 5 2" xfId="365"/>
-    <cellStyle name="集計 2 2 5 6" xfId="366"/>
-    <cellStyle name="集計 2 2 6" xfId="367"/>
-    <cellStyle name="集計 2 2 6 2" xfId="368"/>
-    <cellStyle name="集計 2 2 6 2 2" xfId="369"/>
-    <cellStyle name="集計 2 2 6 3" xfId="370"/>
-    <cellStyle name="集計 2 2 6 3 2" xfId="371"/>
-    <cellStyle name="集計 2 2 6 4" xfId="372"/>
-    <cellStyle name="集計 2 2 6 4 2" xfId="373"/>
-    <cellStyle name="集計 2 2 6 5" xfId="374"/>
-    <cellStyle name="集計 2 2 6 5 2" xfId="375"/>
-    <cellStyle name="集計 2 2 6 6" xfId="376"/>
-    <cellStyle name="集計 2 2 6 6 2" xfId="377"/>
-    <cellStyle name="集計 2 2 6 7" xfId="378"/>
-    <cellStyle name="集計 2 2 7" xfId="379"/>
-    <cellStyle name="集計 2 2 7 2" xfId="380"/>
-    <cellStyle name="集計 2 2 8" xfId="381"/>
-    <cellStyle name="集計 2 3" xfId="382"/>
-    <cellStyle name="出力 2" xfId="383"/>
-    <cellStyle name="出力 2 2" xfId="384"/>
-    <cellStyle name="出力 2 2 2" xfId="385"/>
-    <cellStyle name="出力 2 2 2 2" xfId="386"/>
-    <cellStyle name="出力 2 2 2 2 2" xfId="387"/>
-    <cellStyle name="出力 2 2 2 3" xfId="388"/>
-    <cellStyle name="出力 2 2 2 3 2" xfId="389"/>
-    <cellStyle name="出力 2 2 2 4" xfId="390"/>
-    <cellStyle name="出力 2 2 2 4 2" xfId="391"/>
-    <cellStyle name="出力 2 2 2 5" xfId="392"/>
-    <cellStyle name="出力 2 2 2 5 2" xfId="393"/>
-    <cellStyle name="出力 2 2 2 6" xfId="394"/>
-    <cellStyle name="出力 2 2 2 6 2" xfId="395"/>
-    <cellStyle name="出力 2 2 2 7" xfId="396"/>
-    <cellStyle name="出力 2 2 3" xfId="397"/>
-    <cellStyle name="出力 2 2 3 2" xfId="398"/>
-    <cellStyle name="出力 2 2 3 2 2" xfId="399"/>
-    <cellStyle name="出力 2 2 3 3" xfId="400"/>
-    <cellStyle name="出力 2 2 3 3 2" xfId="401"/>
-    <cellStyle name="出力 2 2 3 4" xfId="402"/>
-    <cellStyle name="出力 2 2 3 4 2" xfId="403"/>
-    <cellStyle name="出力 2 2 3 5" xfId="404"/>
-    <cellStyle name="出力 2 2 3 5 2" xfId="405"/>
-    <cellStyle name="出力 2 2 3 6" xfId="406"/>
-    <cellStyle name="出力 2 2 3 6 2" xfId="407"/>
-    <cellStyle name="出力 2 2 3 7" xfId="408"/>
-    <cellStyle name="出力 2 2 4" xfId="409"/>
-    <cellStyle name="出力 2 2 4 2" xfId="410"/>
-    <cellStyle name="出力 2 2 4 2 2" xfId="411"/>
-    <cellStyle name="出力 2 2 4 3" xfId="412"/>
-    <cellStyle name="出力 2 2 4 3 2" xfId="413"/>
-    <cellStyle name="出力 2 2 4 4" xfId="414"/>
-    <cellStyle name="出力 2 2 4 4 2" xfId="415"/>
-    <cellStyle name="出力 2 2 4 5" xfId="416"/>
-    <cellStyle name="出力 2 2 4 5 2" xfId="417"/>
-    <cellStyle name="出力 2 2 4 6" xfId="418"/>
-    <cellStyle name="出力 2 2 4 6 2" xfId="419"/>
-    <cellStyle name="出力 2 2 4 7" xfId="420"/>
-    <cellStyle name="出力 2 2 5" xfId="421"/>
-    <cellStyle name="出力 2 2 5 2" xfId="422"/>
-    <cellStyle name="出力 2 2 5 2 2" xfId="423"/>
-    <cellStyle name="出力 2 2 5 3" xfId="424"/>
-    <cellStyle name="出力 2 2 5 3 2" xfId="425"/>
-    <cellStyle name="出力 2 2 5 4" xfId="426"/>
-    <cellStyle name="出力 2 2 5 4 2" xfId="427"/>
-    <cellStyle name="出力 2 2 5 5" xfId="428"/>
-    <cellStyle name="出力 2 2 5 5 2" xfId="429"/>
-    <cellStyle name="出力 2 2 5 6" xfId="430"/>
-    <cellStyle name="出力 2 2 6" xfId="431"/>
-    <cellStyle name="出力 2 2 6 2" xfId="432"/>
-    <cellStyle name="出力 2 2 6 2 2" xfId="433"/>
-    <cellStyle name="出力 2 2 6 3" xfId="434"/>
-    <cellStyle name="出力 2 2 6 3 2" xfId="435"/>
-    <cellStyle name="出力 2 2 6 4" xfId="436"/>
-    <cellStyle name="出力 2 2 6 4 2" xfId="437"/>
-    <cellStyle name="出力 2 2 6 5" xfId="438"/>
-    <cellStyle name="出力 2 2 6 5 2" xfId="439"/>
-    <cellStyle name="出力 2 2 6 6" xfId="440"/>
-    <cellStyle name="出力 2 2 6 6 2" xfId="441"/>
-    <cellStyle name="出力 2 2 6 7" xfId="442"/>
-    <cellStyle name="出力 2 2 7" xfId="443"/>
-    <cellStyle name="出力 2 2 7 2" xfId="444"/>
-    <cellStyle name="出力 2 2 8" xfId="445"/>
-    <cellStyle name="出力 2 3" xfId="446"/>
-    <cellStyle name="説明文 2" xfId="447"/>
-    <cellStyle name="入力 2" xfId="448"/>
-    <cellStyle name="入力 2 2" xfId="449"/>
-    <cellStyle name="入力 2 2 2" xfId="450"/>
-    <cellStyle name="入力 2 2 2 2" xfId="451"/>
-    <cellStyle name="入力 2 2 2 2 2" xfId="452"/>
-    <cellStyle name="入力 2 2 2 3" xfId="453"/>
-    <cellStyle name="入力 2 2 2 3 2" xfId="454"/>
-    <cellStyle name="入力 2 2 2 4" xfId="455"/>
-    <cellStyle name="入力 2 2 2 4 2" xfId="456"/>
-    <cellStyle name="入力 2 2 2 5" xfId="457"/>
-    <cellStyle name="入力 2 2 2 5 2" xfId="458"/>
-    <cellStyle name="入力 2 2 2 6" xfId="459"/>
-    <cellStyle name="入力 2 2 2 6 2" xfId="460"/>
-    <cellStyle name="入力 2 2 2 7" xfId="461"/>
-    <cellStyle name="入力 2 2 3" xfId="462"/>
-    <cellStyle name="入力 2 2 3 2" xfId="463"/>
-    <cellStyle name="入力 2 2 3 2 2" xfId="464"/>
-    <cellStyle name="入力 2 2 3 3" xfId="465"/>
-    <cellStyle name="入力 2 2 3 3 2" xfId="466"/>
-    <cellStyle name="入力 2 2 3 4" xfId="467"/>
-    <cellStyle name="入力 2 2 3 4 2" xfId="468"/>
-    <cellStyle name="入力 2 2 3 5" xfId="469"/>
-    <cellStyle name="入力 2 2 3 5 2" xfId="470"/>
-    <cellStyle name="入力 2 2 3 6" xfId="471"/>
-    <cellStyle name="入力 2 2 3 6 2" xfId="472"/>
-    <cellStyle name="入力 2 2 3 7" xfId="473"/>
-    <cellStyle name="入力 2 2 4" xfId="474"/>
-    <cellStyle name="入力 2 2 4 2" xfId="475"/>
-    <cellStyle name="入力 2 2 4 2 2" xfId="476"/>
-    <cellStyle name="入力 2 2 4 3" xfId="477"/>
-    <cellStyle name="入力 2 2 4 3 2" xfId="478"/>
-    <cellStyle name="入力 2 2 4 4" xfId="479"/>
-    <cellStyle name="入力 2 2 4 4 2" xfId="480"/>
-    <cellStyle name="入力 2 2 4 5" xfId="481"/>
-    <cellStyle name="入力 2 2 4 5 2" xfId="482"/>
-    <cellStyle name="入力 2 2 4 6" xfId="483"/>
-    <cellStyle name="入力 2 2 4 6 2" xfId="484"/>
-    <cellStyle name="入力 2 2 4 7" xfId="485"/>
-    <cellStyle name="入力 2 2 5" xfId="486"/>
-    <cellStyle name="入力 2 2 5 2" xfId="487"/>
-    <cellStyle name="入力 2 2 5 2 2" xfId="488"/>
-    <cellStyle name="入力 2 2 5 3" xfId="489"/>
-    <cellStyle name="入力 2 2 5 3 2" xfId="490"/>
-    <cellStyle name="入力 2 2 5 4" xfId="491"/>
-    <cellStyle name="入力 2 2 5 4 2" xfId="492"/>
-    <cellStyle name="入力 2 2 5 5" xfId="493"/>
-    <cellStyle name="入力 2 2 5 5 2" xfId="494"/>
-    <cellStyle name="入力 2 2 5 6" xfId="495"/>
-    <cellStyle name="入力 2 2 5 6 2" xfId="496"/>
-    <cellStyle name="入力 2 2 5 7" xfId="497"/>
-    <cellStyle name="入力 2 2 6" xfId="498"/>
-    <cellStyle name="入力 2 2 6 2" xfId="499"/>
-    <cellStyle name="入力 2 2 6 2 2" xfId="500"/>
-    <cellStyle name="入力 2 2 6 3" xfId="501"/>
-    <cellStyle name="入力 2 2 6 3 2" xfId="502"/>
-    <cellStyle name="入力 2 2 6 4" xfId="503"/>
-    <cellStyle name="入力 2 2 6 4 2" xfId="504"/>
-    <cellStyle name="入力 2 2 6 5" xfId="505"/>
-    <cellStyle name="入力 2 2 6 5 2" xfId="506"/>
-    <cellStyle name="入力 2 2 6 6" xfId="507"/>
-    <cellStyle name="入力 2 2 7" xfId="508"/>
-    <cellStyle name="入力 2 2 7 2" xfId="509"/>
-    <cellStyle name="入力 2 2 8" xfId="510"/>
-    <cellStyle name="入力 2 3" xfId="511"/>
+    <cellStyle name="メモ 2" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="メモ 2 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="メモ 2 2 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="メモ 2 2 2 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="メモ 2 2 2 2 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="メモ 2 2 2 3" xfId="189" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="メモ 2 2 2 3 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="メモ 2 2 2 4" xfId="191" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="メモ 2 2 2 4 2" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="メモ 2 2 2 5" xfId="193" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="メモ 2 2 2 5 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="メモ 2 2 2 6" xfId="195" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="メモ 2 2 2 6 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="メモ 2 2 2 7" xfId="197" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="メモ 2 2 3" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="メモ 2 2 3 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="メモ 2 2 3 2 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="メモ 2 2 3 3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="メモ 2 2 3 3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="メモ 2 2 3 4" xfId="203" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="メモ 2 2 3 4 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="メモ 2 2 3 5" xfId="205" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="メモ 2 2 3 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="メモ 2 2 3 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="メモ 2 2 3 6 2" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="メモ 2 2 3 7" xfId="209" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="メモ 2 2 4" xfId="210" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="メモ 2 2 4 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="メモ 2 2 4 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="メモ 2 2 4 3" xfId="213" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="メモ 2 2 4 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="メモ 2 2 4 4" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="メモ 2 2 4 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="メモ 2 2 4 5" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="メモ 2 2 4 5 2" xfId="218" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="メモ 2 2 4 6" xfId="219" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="メモ 2 2 4 6 2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="メモ 2 2 4 7" xfId="221" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="メモ 2 2 5" xfId="222" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="メモ 2 2 5 2" xfId="223" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="メモ 2 2 5 2 2" xfId="224" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="メモ 2 2 5 3" xfId="225" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="メモ 2 2 5 3 2" xfId="226" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="メモ 2 2 5 4" xfId="227" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="メモ 2 2 5 4 2" xfId="228" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="メモ 2 2 5 5" xfId="229" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="メモ 2 2 5 5 2" xfId="230" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="メモ 2 2 5 6" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="メモ 2 2 5 6 2" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="メモ 2 2 5 7" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="メモ 2 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="メモ 2 2 6 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="メモ 2 2 6 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="メモ 2 2 6 3" xfId="237" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="メモ 2 2 6 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="メモ 2 2 6 4" xfId="239" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="メモ 2 2 6 4 2" xfId="240" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="メモ 2 2 6 5" xfId="241" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="メモ 2 2 6 5 2" xfId="242" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="メモ 2 2 6 6" xfId="243" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="メモ 2 2 7" xfId="244" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="メモ 2 2 7 2" xfId="245" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="メモ 2 2 8" xfId="246" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="メモ 2 3" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="リンク セル 2" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="悪い 2" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="計算 2" xfId="250" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="計算 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="計算 2 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="計算 2 2 2 2" xfId="253" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="計算 2 2 2 2 2" xfId="254" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="計算 2 2 2 3" xfId="255" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="計算 2 2 2 3 2" xfId="256" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="計算 2 2 2 4" xfId="257" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="計算 2 2 2 4 2" xfId="258" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="計算 2 2 2 5" xfId="259" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="計算 2 2 2 5 2" xfId="260" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="計算 2 2 2 6" xfId="261" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="計算 2 2 2 6 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="計算 2 2 2 7" xfId="263" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="計算 2 2 3" xfId="264" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="計算 2 2 3 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="計算 2 2 3 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="計算 2 2 3 3" xfId="267" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="計算 2 2 3 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="計算 2 2 3 4" xfId="269" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="計算 2 2 3 4 2" xfId="270" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="計算 2 2 3 5" xfId="271" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="計算 2 2 3 5 2" xfId="272" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="計算 2 2 3 6" xfId="273" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="計算 2 2 3 6 2" xfId="274" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="計算 2 2 3 7" xfId="275" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="計算 2 2 4" xfId="276" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="計算 2 2 4 2" xfId="277" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="計算 2 2 4 2 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="計算 2 2 4 3" xfId="279" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="計算 2 2 4 3 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="計算 2 2 4 4" xfId="281" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="計算 2 2 4 4 2" xfId="282" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="計算 2 2 4 5" xfId="283" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="計算 2 2 4 5 2" xfId="284" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="計算 2 2 4 6" xfId="285" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="計算 2 2 4 6 2" xfId="286" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="計算 2 2 4 7" xfId="287" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="計算 2 2 5" xfId="288" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="計算 2 2 5 2" xfId="289" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="計算 2 2 5 2 2" xfId="290" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="計算 2 2 5 3" xfId="291" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="計算 2 2 5 3 2" xfId="292" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="計算 2 2 5 4" xfId="293" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="計算 2 2 5 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="計算 2 2 5 5" xfId="295" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="計算 2 2 5 5 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="計算 2 2 5 6" xfId="297" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="計算 2 2 5 6 2" xfId="298" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="計算 2 2 5 7" xfId="299" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="計算 2 2 6" xfId="300" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="計算 2 2 6 2" xfId="301" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="計算 2 2 6 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="計算 2 2 6 3" xfId="303" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="計算 2 2 6 3 2" xfId="304" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="計算 2 2 6 4" xfId="305" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="計算 2 2 6 4 2" xfId="306" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="計算 2 2 6 5" xfId="307" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="計算 2 2 6 5 2" xfId="308" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="計算 2 2 6 6" xfId="309" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="計算 2 2 7" xfId="310" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="計算 2 2 7 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="計算 2 2 8" xfId="312" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="計算 2 3" xfId="313" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="警告文 2" xfId="314" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="見出し 1 2" xfId="315" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="見出し 2 2" xfId="316" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="見出し 3 2" xfId="317" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="見出し 4 2" xfId="318" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="集計 2" xfId="319" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="集計 2 2" xfId="320" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="集計 2 2 2" xfId="321" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="集計 2 2 2 2" xfId="322" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="集計 2 2 2 2 2" xfId="323" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="集計 2 2 2 3" xfId="324" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="集計 2 2 2 3 2" xfId="325" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="集計 2 2 2 4" xfId="326" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="集計 2 2 2 4 2" xfId="327" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="集計 2 2 2 5" xfId="328" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="集計 2 2 2 5 2" xfId="329" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="集計 2 2 2 6" xfId="330" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="集計 2 2 2 6 2" xfId="331" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="集計 2 2 2 7" xfId="332" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="集計 2 2 3" xfId="333" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="集計 2 2 3 2" xfId="334" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="集計 2 2 3 2 2" xfId="335" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="集計 2 2 3 3" xfId="336" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="集計 2 2 3 3 2" xfId="337" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="集計 2 2 3 4" xfId="338" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="集計 2 2 3 4 2" xfId="339" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="集計 2 2 3 5" xfId="340" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="集計 2 2 3 5 2" xfId="341" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="集計 2 2 3 6" xfId="342" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="集計 2 2 3 6 2" xfId="343" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="集計 2 2 3 7" xfId="344" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="集計 2 2 4" xfId="345" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="集計 2 2 4 2" xfId="346" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="集計 2 2 4 2 2" xfId="347" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="集計 2 2 4 3" xfId="348" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="集計 2 2 4 3 2" xfId="349" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="集計 2 2 4 4" xfId="350" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="集計 2 2 4 4 2" xfId="351" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="集計 2 2 4 5" xfId="352" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="集計 2 2 4 5 2" xfId="353" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="集計 2 2 4 6" xfId="354" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="集計 2 2 4 6 2" xfId="355" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="集計 2 2 4 7" xfId="356" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="集計 2 2 5" xfId="357" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="集計 2 2 5 2" xfId="358" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="集計 2 2 5 2 2" xfId="359" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="集計 2 2 5 3" xfId="360" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="集計 2 2 5 3 2" xfId="361" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="集計 2 2 5 4" xfId="362" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="集計 2 2 5 4 2" xfId="363" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="集計 2 2 5 5" xfId="364" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="集計 2 2 5 5 2" xfId="365" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="集計 2 2 5 6" xfId="366" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="集計 2 2 6" xfId="367" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="集計 2 2 6 2" xfId="368" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="集計 2 2 6 2 2" xfId="369" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="集計 2 2 6 3" xfId="370" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="集計 2 2 6 3 2" xfId="371" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="集計 2 2 6 4" xfId="372" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="集計 2 2 6 4 2" xfId="373" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="集計 2 2 6 5" xfId="374" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="集計 2 2 6 5 2" xfId="375" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="集計 2 2 6 6" xfId="376" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="集計 2 2 6 6 2" xfId="377" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="集計 2 2 6 7" xfId="378" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="集計 2 2 7" xfId="379" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="集計 2 2 7 2" xfId="380" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="集計 2 2 8" xfId="381" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="集計 2 3" xfId="382" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="出力 2" xfId="383" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="出力 2 2" xfId="384" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="出力 2 2 2" xfId="385" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="出力 2 2 2 2" xfId="386" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="出力 2 2 2 2 2" xfId="387" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="出力 2 2 2 3" xfId="388" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="出力 2 2 2 3 2" xfId="389" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="出力 2 2 2 4" xfId="390" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="出力 2 2 2 4 2" xfId="391" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="出力 2 2 2 5" xfId="392" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="出力 2 2 2 5 2" xfId="393" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="出力 2 2 2 6" xfId="394" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="出力 2 2 2 6 2" xfId="395" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="出力 2 2 2 7" xfId="396" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="出力 2 2 3" xfId="397" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="出力 2 2 3 2" xfId="398" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="出力 2 2 3 2 2" xfId="399" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="出力 2 2 3 3" xfId="400" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="出力 2 2 3 3 2" xfId="401" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="出力 2 2 3 4" xfId="402" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="出力 2 2 3 4 2" xfId="403" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="出力 2 2 3 5" xfId="404" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="出力 2 2 3 5 2" xfId="405" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="出力 2 2 3 6" xfId="406" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="出力 2 2 3 6 2" xfId="407" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="出力 2 2 3 7" xfId="408" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="出力 2 2 4" xfId="409" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="出力 2 2 4 2" xfId="410" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="出力 2 2 4 2 2" xfId="411" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="出力 2 2 4 3" xfId="412" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="出力 2 2 4 3 2" xfId="413" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="出力 2 2 4 4" xfId="414" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="出力 2 2 4 4 2" xfId="415" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="出力 2 2 4 5" xfId="416" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="出力 2 2 4 5 2" xfId="417" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="出力 2 2 4 6" xfId="418" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="出力 2 2 4 6 2" xfId="419" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="出力 2 2 4 7" xfId="420" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="出力 2 2 5" xfId="421" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="出力 2 2 5 2" xfId="422" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="出力 2 2 5 2 2" xfId="423" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="出力 2 2 5 3" xfId="424" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="出力 2 2 5 3 2" xfId="425" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="出力 2 2 5 4" xfId="426" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="出力 2 2 5 4 2" xfId="427" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="出力 2 2 5 5" xfId="428" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="出力 2 2 5 5 2" xfId="429" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="出力 2 2 5 6" xfId="430" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="出力 2 2 6" xfId="431" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="出力 2 2 6 2" xfId="432" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="出力 2 2 6 2 2" xfId="433" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="出力 2 2 6 3" xfId="434" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="出力 2 2 6 3 2" xfId="435" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="出力 2 2 6 4" xfId="436" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="出力 2 2 6 4 2" xfId="437" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="出力 2 2 6 5" xfId="438" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="出力 2 2 6 5 2" xfId="439" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="出力 2 2 6 6" xfId="440" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="出力 2 2 6 6 2" xfId="441" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="出力 2 2 6 7" xfId="442" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="出力 2 2 7" xfId="443" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="出力 2 2 7 2" xfId="444" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="出力 2 2 8" xfId="445" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="出力 2 3" xfId="446" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="説明文 2" xfId="447" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="入力 2" xfId="448" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="入力 2 2" xfId="449" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="入力 2 2 2" xfId="450" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="入力 2 2 2 2" xfId="451" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="入力 2 2 2 2 2" xfId="452" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="入力 2 2 2 3" xfId="453" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="入力 2 2 2 3 2" xfId="454" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="入力 2 2 2 4" xfId="455" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="入力 2 2 2 4 2" xfId="456" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="入力 2 2 2 5" xfId="457" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="入力 2 2 2 5 2" xfId="458" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="入力 2 2 2 6" xfId="459" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="入力 2 2 2 6 2" xfId="460" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="入力 2 2 2 7" xfId="461" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="入力 2 2 3" xfId="462" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="入力 2 2 3 2" xfId="463" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="入力 2 2 3 2 2" xfId="464" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="入力 2 2 3 3" xfId="465" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="入力 2 2 3 3 2" xfId="466" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="入力 2 2 3 4" xfId="467" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="入力 2 2 3 4 2" xfId="468" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="入力 2 2 3 5" xfId="469" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="入力 2 2 3 5 2" xfId="470" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="入力 2 2 3 6" xfId="471" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="入力 2 2 3 6 2" xfId="472" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="入力 2 2 3 7" xfId="473" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="入力 2 2 4" xfId="474" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="入力 2 2 4 2" xfId="475" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="入力 2 2 4 2 2" xfId="476" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="入力 2 2 4 3" xfId="477" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="入力 2 2 4 3 2" xfId="478" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="入力 2 2 4 4" xfId="479" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="入力 2 2 4 4 2" xfId="480" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="入力 2 2 4 5" xfId="481" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="入力 2 2 4 5 2" xfId="482" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="入力 2 2 4 6" xfId="483" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="入力 2 2 4 6 2" xfId="484" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="入力 2 2 4 7" xfId="485" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="入力 2 2 5" xfId="486" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="入力 2 2 5 2" xfId="487" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="入力 2 2 5 2 2" xfId="488" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="入力 2 2 5 3" xfId="489" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="入力 2 2 5 3 2" xfId="490" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="入力 2 2 5 4" xfId="491" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="入力 2 2 5 4 2" xfId="492" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="入力 2 2 5 5" xfId="493" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="入力 2 2 5 5 2" xfId="494" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="入力 2 2 5 6" xfId="495" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="入力 2 2 5 6 2" xfId="496" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="入力 2 2 5 7" xfId="497" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="入力 2 2 6" xfId="498" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="入力 2 2 6 2" xfId="499" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="入力 2 2 6 2 2" xfId="500" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="入力 2 2 6 3" xfId="501" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="入力 2 2 6 3 2" xfId="502" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="入力 2 2 6 4" xfId="503" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="入力 2 2 6 4 2" xfId="504" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="入力 2 2 6 5" xfId="505" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="入力 2 2 6 5 2" xfId="506" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="入力 2 2 6 6" xfId="507" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="入力 2 2 7" xfId="508" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="入力 2 2 7 2" xfId="509" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="入力 2 2 8" xfId="510" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="入力 2 3" xfId="511" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="512"/>
-    <cellStyle name="標準 11" xfId="513"/>
-    <cellStyle name="標準 11 2" xfId="514"/>
-    <cellStyle name="標準 11 2 2" xfId="515"/>
-    <cellStyle name="標準 11 2 2 2" xfId="516"/>
-    <cellStyle name="標準 11 2 3" xfId="517"/>
-    <cellStyle name="標準 11 2 3 2" xfId="518"/>
-    <cellStyle name="標準 11 2 4" xfId="519"/>
-    <cellStyle name="標準 11 2 4 2" xfId="520"/>
-    <cellStyle name="標準 11 2 5" xfId="521"/>
-    <cellStyle name="標準 11 3" xfId="522"/>
-    <cellStyle name="標準 11 3 2" xfId="523"/>
-    <cellStyle name="標準 11 3 2 2" xfId="524"/>
-    <cellStyle name="標準 11 3 3" xfId="525"/>
-    <cellStyle name="標準 11 3 3 2" xfId="526"/>
-    <cellStyle name="標準 11 3 4" xfId="527"/>
-    <cellStyle name="標準 11 4" xfId="528"/>
-    <cellStyle name="標準 11 4 2" xfId="529"/>
-    <cellStyle name="標準 11 5" xfId="530"/>
-    <cellStyle name="標準 11 5 2" xfId="531"/>
-    <cellStyle name="標準 11 6" xfId="532"/>
-    <cellStyle name="標準 11 6 2" xfId="533"/>
-    <cellStyle name="標準 11 7" xfId="534"/>
-    <cellStyle name="標準 2" xfId="2"/>
-    <cellStyle name="標準 2 2" xfId="535"/>
-    <cellStyle name="標準 2 2 2" xfId="536"/>
-    <cellStyle name="標準 2 3" xfId="537"/>
-    <cellStyle name="標準 2 4" xfId="538"/>
-    <cellStyle name="標準 2 4 2" xfId="539"/>
-    <cellStyle name="標準 2 4 2 2" xfId="540"/>
-    <cellStyle name="標準 2 4 3" xfId="541"/>
-    <cellStyle name="標準 2 4 4" xfId="542"/>
-    <cellStyle name="標準 2_フォーマット" xfId="543"/>
-    <cellStyle name="標準 3" xfId="3"/>
-    <cellStyle name="標準 3 2" xfId="544"/>
-    <cellStyle name="標準 3 2 2" xfId="545"/>
-    <cellStyle name="標準 4" xfId="546"/>
-    <cellStyle name="標準 5" xfId="547"/>
-    <cellStyle name="標準 5 2" xfId="548"/>
-    <cellStyle name="標準 5 3" xfId="549"/>
-    <cellStyle name="標準 5 4" xfId="550"/>
-    <cellStyle name="標準 6" xfId="551"/>
-    <cellStyle name="標準 6 2" xfId="552"/>
-    <cellStyle name="標準 6 3" xfId="553"/>
-    <cellStyle name="標準 7" xfId="554"/>
-    <cellStyle name="標準 8" xfId="555"/>
-    <cellStyle name="標準 9" xfId="556"/>
-    <cellStyle name="標準_~6362950" xfId="1"/>
-    <cellStyle name="標準_~6362950 2" xfId="4"/>
-    <cellStyle name="標準_画面標準" xfId="5"/>
-    <cellStyle name="未定義" xfId="557"/>
-    <cellStyle name="未定義 2" xfId="558"/>
-    <cellStyle name="良い 2" xfId="559"/>
+    <cellStyle name="標準 10" xfId="512" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="標準 11" xfId="513" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="標準 11 2" xfId="514" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="標準 11 2 2" xfId="515" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="標準 11 2 2 2" xfId="516" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="標準 11 2 3" xfId="517" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="標準 11 2 3 2" xfId="518" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="標準 11 2 4" xfId="519" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="標準 11 2 4 2" xfId="520" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="標準 11 2 5" xfId="521" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="標準 11 3" xfId="522" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="標準 11 3 2" xfId="523" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="標準 11 3 2 2" xfId="524" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="標準 11 3 3" xfId="525" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="標準 11 3 3 2" xfId="526" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="標準 11 3 4" xfId="527" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="標準 11 4" xfId="528" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="標準 11 4 2" xfId="529" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="標準 11 5" xfId="530" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="標準 11 5 2" xfId="531" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="標準 11 6" xfId="532" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="標準 11 6 2" xfId="533" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="標準 11 7" xfId="534" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="標準 2 2" xfId="535" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="標準 2 2 2" xfId="536" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="標準 2 3" xfId="537" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="標準 2 4" xfId="538" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="標準 2 4 2" xfId="539" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="標準 2 4 2 2" xfId="540" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="標準 2 4 3" xfId="541" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="標準 2 4 4" xfId="542" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="標準 2_フォーマット" xfId="543" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="標準 3 2" xfId="544" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="標準 3 2 2" xfId="545" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="標準 4" xfId="546" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="標準 5" xfId="547" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="標準 5 2" xfId="548" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="標準 5 3" xfId="549" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="標準 5 4" xfId="550" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="標準 6" xfId="551" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="標準 6 2" xfId="552" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="標準 6 3" xfId="553" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="標準 7" xfId="554" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="標準 8" xfId="555" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="標準 9" xfId="556" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="標準_~6362950" xfId="1" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="標準_~6362950 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="標準_画面標準" xfId="5" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="未定義" xfId="557" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="未定義 2" xfId="558" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="良い 2" xfId="559" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9034,6 +9021,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9056,7 +9046,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9191,6 +9187,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -9224,7 +9225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9266,7 +9267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9299,9 +9300,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9334,6 +9352,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9509,19 +9544,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI512"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="77" workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="77" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -9558,7 +9591,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" ht="13.15" customHeight="1">
+    <row r="2" spans="1:35" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -9595,7 +9628,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1">
+    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -9632,7 +9665,7 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
     </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1">
+    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -9669,7 +9702,7 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1">
+    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -9706,7 +9739,7 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1">
+    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -9743,7 +9776,7 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
     </row>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1">
+    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -9780,7 +9813,7 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
     </row>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1">
+    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -9817,7 +9850,7 @@
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1">
+    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -9854,7 +9887,7 @@
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
     </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1">
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -9891,7 +9924,7 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1">
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -9928,7 +9961,7 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
     </row>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1">
+    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -9965,7 +9998,7 @@
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
     </row>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1">
+    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -10002,7 +10035,7 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
     </row>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1">
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -10039,7 +10072,7 @@
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
     </row>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1">
+    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -10076,7 +10109,7 @@
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
     </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1">
+    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -10113,7 +10146,7 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
     </row>
-    <row r="17" spans="1:35" ht="13.5" customHeight="1">
+    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -10150,7 +10183,7 @@
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
     </row>
-    <row r="18" spans="1:35" ht="13.5" customHeight="1">
+    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -10187,7 +10220,7 @@
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
     </row>
-    <row r="19" spans="1:35" ht="13.5" customHeight="1">
+    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -10224,7 +10257,7 @@
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
     </row>
-    <row r="20" spans="1:35" ht="13.5" customHeight="1">
+    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -10261,7 +10294,7 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
     </row>
-    <row r="21" spans="1:35" ht="13.5" customHeight="1">
+    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -10298,7 +10331,7 @@
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
     </row>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1">
+    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -10335,7 +10368,7 @@
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
     </row>
-    <row r="23" spans="1:35" ht="17.25" customHeight="1">
+    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -10353,9 +10386,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="R23" s="7"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -10374,7 +10405,7 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
     </row>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1">
+    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -10411,7 +10442,7 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -10429,9 +10460,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="8" t="s">
-        <v>123</v>
-      </c>
+      <c r="R25" s="8"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -10450,7 +10479,7 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
     </row>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1">
+    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -10487,7 +10516,7 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
     </row>
-    <row r="27" spans="1:35" ht="13.5" customHeight="1">
+    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -10524,7 +10553,7 @@
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
     </row>
-    <row r="28" spans="1:35" ht="13.5" customHeight="1">
+    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -10561,7 +10590,7 @@
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -10598,7 +10627,7 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
     </row>
-    <row r="30" spans="1:35" ht="13.5" customHeight="1">
+    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -10635,7 +10664,7 @@
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
     </row>
-    <row r="31" spans="1:35" ht="18.75" customHeight="1">
+    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -10672,7 +10701,7 @@
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
     </row>
-    <row r="32" spans="1:35" ht="28.5">
+    <row r="32" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -10709,7 +10738,7 @@
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
     </row>
-    <row r="33" spans="1:35" ht="24.75">
+    <row r="33" spans="1:35" ht="24.75" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -10746,7 +10775,7 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
     </row>
-    <row r="34" spans="1:35" ht="13.5" customHeight="1">
+    <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -10783,7 +10812,7 @@
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
     </row>
-    <row r="35" spans="1:35" ht="13.5" customHeight="1">
+    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -10820,7 +10849,7 @@
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
     </row>
-    <row r="36" spans="1:35" ht="13.5" customHeight="1">
+    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -10857,7 +10886,7 @@
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
     </row>
-    <row r="37" spans="1:35" ht="13.5" customHeight="1">
+    <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>120</v>
@@ -10899,10 +10928,10 @@
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
     </row>
-    <row r="38" spans="1:35" ht="23.25" customHeight="1">
+    <row r="38" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -10938,484 +10967,484 @@
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
     </row>
-    <row r="39" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="40" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="41" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="42" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="43" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="44" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="45" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="46" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="47" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="48" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="E37" r:id="rId1"/>
+    <hyperlink ref="E37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId2"/>
@@ -11424,14 +11453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.5" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="46" customWidth="1"/>
@@ -11441,7 +11468,7 @@
     <col min="8" max="16384" width="4.83203125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="22" customFormat="1" ht="22.5" customHeight="1">
+    <row r="1" spans="1:7" s="22" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="20" t="s">
         <v>119</v>
       </c>
@@ -11452,8 +11479,8 @@
       <c r="F1" s="20"/>
       <c r="G1" s="21"/>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" ht="15" customHeight="1"/>
-    <row r="3" spans="1:7" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="2" spans="1:7" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:7" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
@@ -11474,7 +11501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="25" customFormat="1" ht="30.75" thickTop="1">
+    <row r="4" spans="1:7" s="25" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
         <v>1</v>
       </c>
@@ -11494,10 +11521,10 @@
         <v>115</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="25" customFormat="1" ht="30">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A5" s="31">
         <v>2</v>
       </c>
@@ -11517,10 +11544,10 @@
         <v>13</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="25" customFormat="1" ht="30">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="31">
         <v>3</v>
       </c>
@@ -11540,10 +11567,10 @@
         <v>94</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A7" s="31">
         <v>4</v>
       </c>
@@ -11563,10 +11590,10 @@
         <v>94</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="25" customFormat="1" ht="30">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A8" s="31">
         <v>5</v>
       </c>
@@ -11586,10 +11613,10 @@
         <v>94</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="25" customFormat="1" ht="30">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A9" s="31">
         <v>6</v>
       </c>
@@ -11609,10 +11636,10 @@
         <v>95</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A10" s="31">
         <v>7</v>
       </c>
@@ -11632,10 +11659,10 @@
         <v>27</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A11" s="31">
         <v>8</v>
       </c>
@@ -11655,10 +11682,10 @@
         <v>27</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="25" customFormat="1" ht="30">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="31">
         <v>9</v>
       </c>
@@ -11678,10 +11705,10 @@
         <v>27</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="25" customFormat="1" ht="30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="31">
         <v>10</v>
       </c>
@@ -11701,10 +11728,10 @@
         <v>27</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="25" customFormat="1" ht="105">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.15">
       <c r="A14" s="31">
         <v>11</v>
       </c>
@@ -11724,10 +11751,10 @@
         <v>27</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="25" customFormat="1" ht="30">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A15" s="31">
         <v>12</v>
       </c>
@@ -11747,10 +11774,10 @@
         <v>27</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A16" s="31">
         <v>13</v>
       </c>
@@ -11770,10 +11797,10 @@
         <v>27</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A17" s="31">
         <v>14</v>
       </c>
@@ -11793,10 +11820,10 @@
         <v>27</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A18" s="31">
         <v>15</v>
       </c>
@@ -11816,10 +11843,10 @@
         <v>27</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A19" s="31">
         <v>16</v>
       </c>
@@ -11839,10 +11866,10 @@
         <v>27</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="25" customFormat="1" ht="120">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="25" customFormat="1" ht="120" x14ac:dyDescent="0.15">
       <c r="A20" s="31">
         <v>17</v>
       </c>
@@ -11862,10 +11889,10 @@
         <v>27</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="25" customFormat="1" ht="105">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.15">
       <c r="A21" s="31">
         <v>18</v>
       </c>
@@ -11885,10 +11912,10 @@
         <v>27</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="25" customFormat="1" ht="105">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.15">
       <c r="A22" s="31">
         <v>19</v>
       </c>
@@ -11908,10 +11935,10 @@
         <v>27</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A23" s="31">
         <v>20</v>
       </c>
@@ -11931,10 +11958,10 @@
         <v>27</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="25" customFormat="1" ht="75">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A24" s="31">
         <v>21</v>
       </c>
@@ -11954,10 +11981,10 @@
         <v>27</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="25" customFormat="1" ht="90">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A25" s="31">
         <v>22</v>
       </c>
@@ -11977,10 +12004,10 @@
         <v>27</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="25" customFormat="1" ht="105">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.15">
       <c r="A26" s="31">
         <v>23</v>
       </c>
@@ -12000,10 +12027,10 @@
         <v>27</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="25" customFormat="1" ht="75">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A27" s="31">
         <v>24</v>
       </c>
@@ -12023,10 +12050,10 @@
         <v>27</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="25" customFormat="1" ht="165">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="25" customFormat="1" ht="165" x14ac:dyDescent="0.15">
       <c r="A28" s="31">
         <v>25</v>
       </c>
@@ -12046,10 +12073,10 @@
         <v>96</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A29" s="31">
         <v>26</v>
       </c>
@@ -12069,10 +12096,10 @@
         <v>96</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="25" customFormat="1" ht="75">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A30" s="31">
         <v>27</v>
       </c>
@@ -12092,10 +12119,10 @@
         <v>96</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="25" customFormat="1" ht="75">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A31" s="31">
         <v>28</v>
       </c>
@@ -12115,10 +12142,10 @@
         <v>96</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="25" customFormat="1" ht="135">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="25" customFormat="1" ht="135" x14ac:dyDescent="0.15">
       <c r="A32" s="31">
         <v>29</v>
       </c>
@@ -12138,10 +12165,10 @@
         <v>96</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="25" customFormat="1" ht="75">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A33" s="31">
         <v>30</v>
       </c>
@@ -12161,10 +12188,10 @@
         <v>96</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A34" s="31">
         <v>31</v>
       </c>
@@ -12184,10 +12211,10 @@
         <v>96</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="25" customFormat="1" ht="75">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A35" s="31">
         <v>32</v>
       </c>
@@ -12207,10 +12234,10 @@
         <v>96</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A36" s="31">
         <v>33</v>
       </c>
@@ -12230,10 +12257,10 @@
         <v>96</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="25" customFormat="1" ht="105">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.15">
       <c r="A37" s="31">
         <v>34</v>
       </c>
@@ -12253,15 +12280,15 @@
         <v>96</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="25" customFormat="1" ht="23.25" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="31">
         <v>35</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C38" s="37">
         <v>43245</v>
@@ -12276,10 +12303,10 @@
         <v>96</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A39" s="31">
         <v>36</v>
       </c>
@@ -12299,10 +12326,10 @@
         <v>97</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="25" customFormat="1" ht="75">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A40" s="31">
         <v>37</v>
       </c>
@@ -12322,10 +12349,10 @@
         <v>85</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="25" customFormat="1" ht="30">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A41" s="31">
         <v>38</v>
       </c>
@@ -12345,10 +12372,10 @@
         <v>85</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A42" s="31">
         <v>39</v>
       </c>
@@ -12368,10 +12395,10 @@
         <v>85</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A43" s="31">
         <v>40</v>
       </c>
@@ -12391,10 +12418,10 @@
         <v>85</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A44" s="31">
         <v>41</v>
       </c>
@@ -12414,10 +12441,10 @@
         <v>85</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="25" customFormat="1" ht="90">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A45" s="31">
         <v>42</v>
       </c>
@@ -12437,10 +12464,10 @@
         <v>86</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A46" s="31">
         <v>43</v>
       </c>
@@ -12460,10 +12487,10 @@
         <v>87</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="25" customFormat="1" ht="90">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A47" s="31">
         <v>44</v>
       </c>
@@ -12483,10 +12510,10 @@
         <v>88</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A48" s="31">
         <v>45</v>
       </c>
@@ -12506,10 +12533,10 @@
         <v>89</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A49" s="31">
         <v>46</v>
       </c>
@@ -12529,10 +12556,10 @@
         <v>90</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="25" customFormat="1" ht="75">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A50" s="31">
         <v>47</v>
       </c>
@@ -12552,10 +12579,10 @@
         <v>91</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A51" s="31">
         <v>48</v>
       </c>
@@ -12575,10 +12602,10 @@
         <v>92</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="25" customFormat="1" ht="75">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A52" s="31">
         <v>49</v>
       </c>
@@ -12598,10 +12625,10 @@
         <v>102</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="25" customFormat="1" ht="75">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A53" s="31">
         <v>50</v>
       </c>
@@ -12621,10 +12648,10 @@
         <v>101</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A54" s="31">
         <v>51</v>
       </c>
@@ -12644,10 +12671,10 @@
         <v>21</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A55" s="31">
         <v>52</v>
       </c>
@@ -12667,10 +12694,10 @@
         <v>21</v>
       </c>
       <c r="G55" s="35" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A56" s="31">
         <v>53</v>
       </c>
@@ -12690,10 +12717,10 @@
         <v>21</v>
       </c>
       <c r="G56" s="35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A57" s="31">
         <v>54</v>
       </c>
@@ -12713,10 +12740,10 @@
         <v>21</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A58" s="31">
         <v>55</v>
       </c>
@@ -12736,10 +12763,10 @@
         <v>28</v>
       </c>
       <c r="G58" s="35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A59" s="31">
         <v>56</v>
       </c>
@@ -12759,10 +12786,10 @@
         <v>28</v>
       </c>
       <c r="G59" s="42" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="25" customFormat="1" ht="150">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.15">
       <c r="A60" s="31">
         <v>57</v>
       </c>
@@ -12782,10 +12809,10 @@
         <v>28</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="25" customFormat="1" ht="30">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A61" s="31">
         <v>58</v>
       </c>
@@ -12805,10 +12832,10 @@
         <v>20</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A62" s="31">
         <v>59</v>
       </c>
@@ -12828,10 +12855,10 @@
         <v>20</v>
       </c>
       <c r="G62" s="35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A63" s="31">
         <v>60</v>
       </c>
@@ -12851,10 +12878,10 @@
         <v>20</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="25" customFormat="1" ht="105">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.15">
       <c r="A64" s="31">
         <v>61</v>
       </c>
@@ -12874,10 +12901,10 @@
         <v>20</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="25" customFormat="1" ht="105">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.15">
       <c r="A65" s="31">
         <v>62</v>
       </c>
@@ -12897,10 +12924,10 @@
         <v>20</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A66" s="31">
         <v>63</v>
       </c>
@@ -12920,10 +12947,10 @@
         <v>20</v>
       </c>
       <c r="G66" s="35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A67" s="31">
         <v>64</v>
       </c>
@@ -12943,10 +12970,10 @@
         <v>20</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A68" s="31">
         <v>65</v>
       </c>
@@ -12966,10 +12993,10 @@
         <v>20</v>
       </c>
       <c r="G68" s="35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A69" s="31">
         <v>66</v>
       </c>
@@ -12989,10 +13016,10 @@
         <v>20</v>
       </c>
       <c r="G69" s="35" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A70" s="31">
         <v>67</v>
       </c>
@@ -13012,10 +13039,10 @@
         <v>20</v>
       </c>
       <c r="G70" s="35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="25" customFormat="1" ht="90">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A71" s="31">
         <v>68</v>
       </c>
@@ -13032,13 +13059,13 @@
         <v>11</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A72" s="31">
         <v>69</v>
       </c>
@@ -13058,10 +13085,10 @@
         <v>109</v>
       </c>
       <c r="G72" s="35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="25" customFormat="1" ht="105">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.15">
       <c r="A73" s="31">
         <v>70</v>
       </c>
@@ -13078,13 +13105,13 @@
         <v>11</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G73" s="35" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A74" s="31">
         <v>71</v>
       </c>
@@ -13104,10 +13131,10 @@
         <v>105</v>
       </c>
       <c r="G74" s="35" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="25" customFormat="1" ht="75">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A75" s="31">
         <v>72</v>
       </c>
@@ -13127,10 +13154,10 @@
         <v>106</v>
       </c>
       <c r="G75" s="35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A76" s="31">
         <v>73</v>
       </c>
@@ -13150,10 +13177,10 @@
         <v>84</v>
       </c>
       <c r="G76" s="35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="25" customFormat="1" ht="135">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="25" customFormat="1" ht="135" x14ac:dyDescent="0.15">
       <c r="A77" s="31">
         <v>74</v>
       </c>
@@ -13170,13 +13197,13 @@
         <v>11</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="25" customFormat="1" ht="330">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="25" customFormat="1" ht="330" x14ac:dyDescent="0.15">
       <c r="A78" s="31">
         <v>75</v>
       </c>
@@ -13193,13 +13220,13 @@
         <v>11</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G78" s="35" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A79" s="31">
         <v>76</v>
       </c>
@@ -13219,10 +13246,10 @@
         <v>26</v>
       </c>
       <c r="G79" s="35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A80" s="31">
         <v>77</v>
       </c>
@@ -13242,10 +13269,10 @@
         <v>111</v>
       </c>
       <c r="G80" s="35" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A81" s="31">
         <v>78</v>
       </c>
@@ -13268,7 +13295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="25" customFormat="1" ht="105">
+    <row r="82" spans="1:7" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.15">
       <c r="A82" s="31">
         <v>79</v>
       </c>
@@ -13285,13 +13312,13 @@
         <v>11</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G82" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="25" customFormat="1" ht="135">
+    <row r="83" spans="1:7" s="25" customFormat="1" ht="135" x14ac:dyDescent="0.15">
       <c r="A83" s="31">
         <v>80</v>
       </c>
@@ -13308,13 +13335,13 @@
         <v>11</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G83" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="25" customFormat="1" ht="285">
+    <row r="84" spans="1:7" s="25" customFormat="1" ht="285" x14ac:dyDescent="0.15">
       <c r="A84" s="31">
         <v>81</v>
       </c>
@@ -13331,13 +13358,13 @@
         <v>11</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G84" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="25" customFormat="1" ht="105">
+    <row r="85" spans="1:7" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.15">
       <c r="A85" s="31">
         <v>82</v>
       </c>
@@ -13357,10 +13384,10 @@
         <v>25</v>
       </c>
       <c r="G85" s="35" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="25" customFormat="1" ht="90">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A86" s="31">
         <v>83</v>
       </c>
@@ -13380,10 +13407,10 @@
         <v>25</v>
       </c>
       <c r="G86" s="35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="25" customFormat="1" ht="180">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="25" customFormat="1" ht="180" x14ac:dyDescent="0.15">
       <c r="A87" s="31">
         <v>84</v>
       </c>
@@ -13400,13 +13427,13 @@
         <v>11</v>
       </c>
       <c r="F87" s="38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G87" s="35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="25" customFormat="1" ht="90">
+    <row r="88" spans="1:7" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A88" s="31">
         <v>85</v>
       </c>
@@ -13423,13 +13450,13 @@
         <v>11</v>
       </c>
       <c r="F88" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G88" s="35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="25" customFormat="1" ht="90">
+    <row r="89" spans="1:7" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A89" s="31">
         <v>86</v>
       </c>
@@ -13446,13 +13473,13 @@
         <v>11</v>
       </c>
       <c r="F89" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G89" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="25" customFormat="1" ht="75">
+    <row r="90" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A90" s="31">
         <v>87</v>
       </c>
@@ -13469,13 +13496,13 @@
         <v>11</v>
       </c>
       <c r="F90" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G90" s="35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="25" customFormat="1" ht="120">
+    <row r="91" spans="1:7" s="25" customFormat="1" ht="120" x14ac:dyDescent="0.15">
       <c r="A91" s="31">
         <v>88</v>
       </c>
@@ -13492,13 +13519,13 @@
         <v>11</v>
       </c>
       <c r="F91" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G91" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="25" customFormat="1" ht="75">
+    <row r="92" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A92" s="31">
         <v>89</v>
       </c>
@@ -13515,13 +13542,13 @@
         <v>11</v>
       </c>
       <c r="F92" s="38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G92" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="25" customFormat="1" ht="75">
+    <row r="93" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A93" s="31">
         <v>90</v>
       </c>
@@ -13538,13 +13565,13 @@
         <v>11</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G93" s="35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="25" customFormat="1" ht="75">
+    <row r="94" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A94" s="31">
         <v>91</v>
       </c>
@@ -13561,13 +13588,13 @@
         <v>11</v>
       </c>
       <c r="F94" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G94" s="35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="25" customFormat="1" ht="75">
+    <row r="95" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A95" s="31">
         <v>92</v>
       </c>
@@ -13584,13 +13611,13 @@
         <v>11</v>
       </c>
       <c r="F95" s="38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G95" s="35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="25" customFormat="1" ht="75">
+    <row r="96" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A96" s="31">
         <v>93</v>
       </c>
@@ -13607,13 +13634,13 @@
         <v>11</v>
       </c>
       <c r="F96" s="38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G96" s="35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="25" customFormat="1" ht="75">
+    <row r="97" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A97" s="31">
         <v>94</v>
       </c>
@@ -13630,13 +13657,13 @@
         <v>11</v>
       </c>
       <c r="F97" s="38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G97" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="25" customFormat="1" ht="90">
+    <row r="98" spans="1:7" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A98" s="31">
         <v>95</v>
       </c>
@@ -13653,13 +13680,13 @@
         <v>11</v>
       </c>
       <c r="F98" s="38" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G98" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="25" customFormat="1" ht="90">
+    <row r="99" spans="1:7" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A99" s="31">
         <v>96</v>
       </c>
@@ -13676,13 +13703,13 @@
         <v>11</v>
       </c>
       <c r="F99" s="38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G99" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="25" customFormat="1" ht="60">
+    <row r="100" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A100" s="31">
         <v>97</v>
       </c>
@@ -13699,13 +13726,13 @@
         <v>11</v>
       </c>
       <c r="F100" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G100" s="35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="25" customFormat="1" ht="60">
+    <row r="101" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A101" s="31">
         <v>98</v>
       </c>
@@ -13722,13 +13749,13 @@
         <v>11</v>
       </c>
       <c r="F101" s="38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G101" s="35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A102" s="31">
         <v>99</v>
       </c>
@@ -13748,10 +13775,10 @@
         <v>107</v>
       </c>
       <c r="G102" s="35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A103" s="31">
         <v>100</v>
       </c>
@@ -13768,13 +13795,13 @@
         <v>11</v>
       </c>
       <c r="F103" s="38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G103" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="25" customFormat="1" ht="75">
+    <row r="104" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A104" s="31">
         <v>101</v>
       </c>
@@ -13791,13 +13818,13 @@
         <v>11</v>
       </c>
       <c r="F104" s="38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G104" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="25" customFormat="1" ht="60">
+    <row r="105" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A105" s="31">
         <v>102</v>
       </c>
@@ -13814,13 +13841,13 @@
         <v>11</v>
       </c>
       <c r="F105" s="38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G105" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="25" customFormat="1" ht="45">
+    <row r="106" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A106" s="31">
         <v>103</v>
       </c>
@@ -13837,13 +13864,13 @@
         <v>11</v>
       </c>
       <c r="F106" s="38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G106" s="35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="25" customFormat="1" ht="45">
+    <row r="107" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A107" s="31">
         <v>104</v>
       </c>
@@ -13860,13 +13887,13 @@
         <v>11</v>
       </c>
       <c r="F107" s="38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G107" s="35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A108" s="31">
         <v>105</v>
       </c>
@@ -13886,10 +13913,10 @@
         <v>108</v>
       </c>
       <c r="G108" s="35" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A109" s="31">
         <v>106</v>
       </c>
@@ -13906,13 +13933,13 @@
         <v>11</v>
       </c>
       <c r="F109" s="38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G109" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="25" customFormat="1" ht="75">
+    <row r="110" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A110" s="31">
         <v>107</v>
       </c>
@@ -13929,13 +13956,13 @@
         <v>11</v>
       </c>
       <c r="F110" s="38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G110" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="25" customFormat="1" ht="105">
+    <row r="111" spans="1:7" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.15">
       <c r="A111" s="31">
         <v>108</v>
       </c>
@@ -13955,10 +13982,10 @@
         <v>40</v>
       </c>
       <c r="G111" s="35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A112" s="31">
         <v>109</v>
       </c>
@@ -13978,10 +14005,10 @@
         <v>24</v>
       </c>
       <c r="G112" s="35" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A113" s="31">
         <v>110</v>
       </c>
@@ -14001,10 +14028,10 @@
         <v>41</v>
       </c>
       <c r="G113" s="35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A114" s="31">
         <v>111</v>
       </c>
@@ -14024,10 +14051,10 @@
         <v>14</v>
       </c>
       <c r="G114" s="35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="25" customFormat="1" ht="75">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A115" s="31">
         <v>112</v>
       </c>
@@ -14044,13 +14071,13 @@
         <v>11</v>
       </c>
       <c r="F115" s="38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G115" s="35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="25" customFormat="1" ht="45">
+    <row r="116" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A116" s="31">
         <v>113</v>
       </c>
@@ -14070,10 +14097,10 @@
         <v>44</v>
       </c>
       <c r="G116" s="35" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="25" customFormat="1" ht="90">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A117" s="31">
         <v>114</v>
       </c>
@@ -14090,13 +14117,13 @@
         <v>11</v>
       </c>
       <c r="F117" s="38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G117" s="35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="25" customFormat="1" ht="75">
+    <row r="118" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A118" s="31">
         <v>115</v>
       </c>
@@ -14113,13 +14140,13 @@
         <v>11</v>
       </c>
       <c r="F118" s="38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G118" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="25" customFormat="1" ht="75">
+    <row r="119" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A119" s="31">
         <v>116</v>
       </c>
@@ -14142,7 +14169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="25" customFormat="1" ht="90">
+    <row r="120" spans="1:7" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A120" s="31">
         <v>117</v>
       </c>
@@ -14159,13 +14186,13 @@
         <v>11</v>
       </c>
       <c r="F120" s="38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G120" s="35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="25" customFormat="1" ht="75">
+    <row r="121" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A121" s="31">
         <v>118</v>
       </c>
@@ -14182,13 +14209,13 @@
         <v>11</v>
       </c>
       <c r="F121" s="38" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G121" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="25" customFormat="1" ht="90">
+    <row r="122" spans="1:7" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A122" s="31">
         <v>119</v>
       </c>
@@ -14208,10 +14235,10 @@
         <v>14</v>
       </c>
       <c r="G122" s="35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A123" s="31">
         <v>120</v>
       </c>
@@ -14231,10 +14258,10 @@
         <v>103</v>
       </c>
       <c r="G123" s="35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A124" s="31">
         <v>121</v>
       </c>
@@ -14254,10 +14281,10 @@
         <v>104</v>
       </c>
       <c r="G124" s="35" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A125" s="31">
         <v>122</v>
       </c>
@@ -14277,10 +14304,10 @@
         <v>48</v>
       </c>
       <c r="G125" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A126" s="31">
         <v>123</v>
       </c>
@@ -14300,10 +14327,10 @@
         <v>16</v>
       </c>
       <c r="G126" s="35" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="25" customFormat="1" ht="75">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A127" s="31">
         <v>124</v>
       </c>
@@ -14320,13 +14347,13 @@
         <v>11</v>
       </c>
       <c r="F127" s="38" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G127" s="35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="25" customFormat="1" ht="60">
+    <row r="128" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A128" s="31">
         <v>125</v>
       </c>
@@ -14346,10 +14373,10 @@
         <v>53</v>
       </c>
       <c r="G128" s="35" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A129" s="31">
         <v>126</v>
       </c>
@@ -14369,10 +14396,10 @@
         <v>55</v>
       </c>
       <c r="G129" s="35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" s="25" customFormat="1" ht="75">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A130" s="31">
         <v>127</v>
       </c>
@@ -14389,13 +14416,13 @@
         <v>11</v>
       </c>
       <c r="F130" s="38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G130" s="35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="25" customFormat="1" ht="60">
+    <row r="131" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A131" s="31">
         <v>128</v>
       </c>
@@ -14415,10 +14442,10 @@
         <v>57</v>
       </c>
       <c r="G131" s="35" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" s="25" customFormat="1" ht="60">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A132" s="31">
         <v>129</v>
       </c>
@@ -14435,13 +14462,13 @@
         <v>11</v>
       </c>
       <c r="F132" s="38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G132" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="25" customFormat="1" ht="75">
+    <row r="133" spans="1:7" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A133" s="31">
         <v>130</v>
       </c>
@@ -14461,10 +14488,10 @@
         <v>16</v>
       </c>
       <c r="G133" s="35" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A134" s="31">
         <v>131</v>
       </c>
@@ -14484,10 +14511,10 @@
         <v>61</v>
       </c>
       <c r="G134" s="35" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" s="25" customFormat="1" ht="45">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A135" s="31">
         <v>132</v>
       </c>
@@ -14507,10 +14534,10 @@
         <v>59</v>
       </c>
       <c r="G135" s="35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" s="25" customFormat="1" ht="90">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A136" s="31">
         <v>133</v>
       </c>
@@ -14527,13 +14554,13 @@
         <v>11</v>
       </c>
       <c r="F136" s="38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G136" s="35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="25" customFormat="1" ht="60">
+    <row r="137" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A137" s="31">
         <v>134</v>
       </c>
@@ -14550,13 +14577,13 @@
         <v>11</v>
       </c>
       <c r="F137" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G137" s="35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="60">
+    <row r="138" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A138" s="31">
         <v>135</v>
       </c>
@@ -14576,10 +14603,10 @@
         <v>60</v>
       </c>
       <c r="G138" s="35" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="60">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A139" s="31">
         <v>136</v>
       </c>
@@ -14596,13 +14623,13 @@
         <v>11</v>
       </c>
       <c r="F139" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G139" s="35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="60">
+    <row r="140" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A140" s="31">
         <v>137</v>
       </c>
@@ -14619,13 +14646,13 @@
         <v>11</v>
       </c>
       <c r="F140" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G140" s="35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="60">
+    <row r="141" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A141" s="31">
         <v>138</v>
       </c>
@@ -14645,10 +14672,10 @@
         <v>66</v>
       </c>
       <c r="G141" s="35" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="45" x14ac:dyDescent="0.35">
       <c r="A142" s="31">
         <v>139</v>
       </c>
@@ -14668,10 +14695,10 @@
         <v>64</v>
       </c>
       <c r="G142" s="35" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="105">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="105" x14ac:dyDescent="0.35">
       <c r="A143" s="31">
         <v>140</v>
       </c>
@@ -14688,13 +14715,13 @@
         <v>11</v>
       </c>
       <c r="F143" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G143" s="35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="45">
+    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.35">
       <c r="A144" s="31">
         <v>141</v>
       </c>
@@ -14711,13 +14738,13 @@
         <v>11</v>
       </c>
       <c r="F144" s="38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G144" s="35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="90">
+    <row r="145" spans="1:7" ht="90" x14ac:dyDescent="0.35">
       <c r="A145" s="31">
         <v>142</v>
       </c>
@@ -14734,13 +14761,13 @@
         <v>11</v>
       </c>
       <c r="F145" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G145" s="35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="60">
+    <row r="146" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A146" s="31">
         <v>143</v>
       </c>
@@ -14757,13 +14784,13 @@
         <v>11</v>
       </c>
       <c r="F146" s="38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G146" s="35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="60">
+    <row r="147" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A147" s="31">
         <v>144</v>
       </c>
@@ -14783,10 +14810,10 @@
         <v>114</v>
       </c>
       <c r="G147" s="35" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="135">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="135" x14ac:dyDescent="0.35">
       <c r="A148" s="31">
         <v>145</v>
       </c>
@@ -14803,13 +14830,13 @@
         <v>11</v>
       </c>
       <c r="F148" s="38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G148" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="60">
+    <row r="149" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A149" s="31">
         <v>146</v>
       </c>
@@ -14826,13 +14853,13 @@
         <v>11</v>
       </c>
       <c r="F149" s="38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G149" s="35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="60">
+    <row r="150" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A150" s="31">
         <v>147</v>
       </c>
@@ -14849,13 +14876,13 @@
         <v>11</v>
       </c>
       <c r="F150" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G150" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="165">
+    <row r="151" spans="1:7" ht="165" x14ac:dyDescent="0.35">
       <c r="A151" s="31">
         <v>148</v>
       </c>
@@ -14872,13 +14899,13 @@
         <v>11</v>
       </c>
       <c r="F151" s="38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G151" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="60">
+    <row r="152" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A152" s="31">
         <v>149</v>
       </c>
@@ -14895,13 +14922,13 @@
         <v>11</v>
       </c>
       <c r="F152" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G152" s="35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="105">
+    <row r="153" spans="1:7" ht="105" x14ac:dyDescent="0.35">
       <c r="A153" s="31">
         <v>150</v>
       </c>
@@ -14921,10 +14948,10 @@
         <v>70</v>
       </c>
       <c r="G153" s="35" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="75">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A154" s="31">
         <v>151</v>
       </c>
@@ -14944,10 +14971,10 @@
         <v>70</v>
       </c>
       <c r="G154" s="35" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="60">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A155" s="31">
         <v>152</v>
       </c>
@@ -14967,10 +14994,10 @@
         <v>49</v>
       </c>
       <c r="G155" s="35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="45">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="45" x14ac:dyDescent="0.35">
       <c r="A156" s="31">
         <v>153</v>
       </c>
@@ -14990,10 +15017,10 @@
         <v>18</v>
       </c>
       <c r="G156" s="35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="60">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A157" s="31">
         <v>154</v>
       </c>
@@ -15013,10 +15040,10 @@
         <v>18</v>
       </c>
       <c r="G157" s="35" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="180">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="180" x14ac:dyDescent="0.35">
       <c r="A158" s="31">
         <v>155</v>
       </c>
@@ -15033,13 +15060,13 @@
         <v>11</v>
       </c>
       <c r="F158" s="38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G158" s="35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="60">
+    <row r="159" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A159" s="31">
         <v>156</v>
       </c>
@@ -15056,13 +15083,13 @@
         <v>11</v>
       </c>
       <c r="F159" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G159" s="35" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="60">
+    <row r="160" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A160" s="31">
         <v>157</v>
       </c>
@@ -15079,13 +15106,13 @@
         <v>11</v>
       </c>
       <c r="F160" s="38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G160" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="135">
+    <row r="161" spans="1:7" ht="135" x14ac:dyDescent="0.35">
       <c r="A161" s="31">
         <v>158</v>
       </c>
@@ -15102,13 +15129,13 @@
         <v>11</v>
       </c>
       <c r="F161" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G161" s="35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="60">
+    <row r="162" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A162" s="31">
         <v>159</v>
       </c>
@@ -15125,13 +15152,13 @@
         <v>11</v>
       </c>
       <c r="F162" s="38" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G162" s="35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="60">
+    <row r="163" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A163" s="31">
         <v>160</v>
       </c>
@@ -15148,13 +15175,13 @@
         <v>11</v>
       </c>
       <c r="F163" s="38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G163" s="35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="60">
+    <row r="164" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A164" s="31">
         <v>161</v>
       </c>
@@ -15171,13 +15198,13 @@
         <v>11</v>
       </c>
       <c r="F164" s="38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G164" s="35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="60">
+    <row r="165" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A165" s="31">
         <v>162</v>
       </c>
@@ -15194,13 +15221,13 @@
         <v>11</v>
       </c>
       <c r="F165" s="38" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G165" s="35" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="75">
+    <row r="166" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A166" s="31">
         <v>163</v>
       </c>
@@ -15217,13 +15244,13 @@
         <v>11</v>
       </c>
       <c r="F166" s="38" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G166" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="90">
+    <row r="167" spans="1:7" ht="90" x14ac:dyDescent="0.35">
       <c r="A167" s="31">
         <v>164</v>
       </c>
@@ -15240,13 +15267,13 @@
         <v>11</v>
       </c>
       <c r="F167" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G167" s="35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="75">
+    <row r="168" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A168" s="31">
         <v>165</v>
       </c>
@@ -15263,13 +15290,13 @@
         <v>11</v>
       </c>
       <c r="F168" s="38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G168" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="75">
+    <row r="169" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A169" s="31">
         <v>166</v>
       </c>
@@ -15286,13 +15313,13 @@
         <v>11</v>
       </c>
       <c r="F169" s="38" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G169" s="35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="60">
+    <row r="170" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A170" s="31">
         <v>167</v>
       </c>
@@ -15309,13 +15336,13 @@
         <v>11</v>
       </c>
       <c r="F170" s="38" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G170" s="35" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="60">
+    <row r="171" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A171" s="31">
         <v>168</v>
       </c>
@@ -15335,10 +15362,10 @@
         <v>29</v>
       </c>
       <c r="G171" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="45">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="45" x14ac:dyDescent="0.35">
       <c r="A172" s="31">
         <v>169</v>
       </c>
@@ -15358,10 +15385,10 @@
         <v>51</v>
       </c>
       <c r="G172" s="35" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="45">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="45" x14ac:dyDescent="0.35">
       <c r="A173" s="31">
         <v>170</v>
       </c>
@@ -15381,10 +15408,10 @@
         <v>29</v>
       </c>
       <c r="G173" s="35" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="45" x14ac:dyDescent="0.35">
       <c r="A174" s="31">
         <v>171</v>
       </c>
@@ -15401,13 +15428,13 @@
         <v>11</v>
       </c>
       <c r="F174" s="38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G174" s="35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="45">
+    <row r="175" spans="1:7" ht="45" x14ac:dyDescent="0.35">
       <c r="A175" s="31">
         <v>172</v>
       </c>
@@ -15427,10 +15454,10 @@
         <v>78</v>
       </c>
       <c r="G175" s="35" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="60">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A176" s="31">
         <v>173</v>
       </c>
@@ -15450,10 +15477,10 @@
         <v>77</v>
       </c>
       <c r="G176" s="35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="75">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A177" s="31">
         <v>174</v>
       </c>
@@ -15473,10 +15500,10 @@
         <v>78</v>
       </c>
       <c r="G177" s="35" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="75">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A178" s="31">
         <v>175</v>
       </c>
@@ -15496,10 +15523,10 @@
         <v>79</v>
       </c>
       <c r="G178" s="35" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="60">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A179" s="31">
         <v>176</v>
       </c>
@@ -15519,10 +15546,10 @@
         <v>113</v>
       </c>
       <c r="G179" s="35" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="75">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A180" s="31">
         <v>177</v>
       </c>
@@ -15542,10 +15569,10 @@
         <v>29</v>
       </c>
       <c r="G180" s="35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="60">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A181" s="31">
         <v>178</v>
       </c>
@@ -15565,10 +15592,10 @@
         <v>50</v>
       </c>
       <c r="G181" s="35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="45">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="45" x14ac:dyDescent="0.35">
       <c r="A182" s="31">
         <v>179</v>
       </c>
@@ -15588,10 +15615,10 @@
         <v>17</v>
       </c>
       <c r="G182" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="45">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="45" x14ac:dyDescent="0.35">
       <c r="A183" s="31">
         <v>180</v>
       </c>
@@ -15608,13 +15635,13 @@
         <v>11</v>
       </c>
       <c r="F183" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G183" s="35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="45">
+    <row r="184" spans="1:7" ht="45" x14ac:dyDescent="0.35">
       <c r="A184" s="31">
         <v>181</v>
       </c>
@@ -15631,13 +15658,13 @@
         <v>11</v>
       </c>
       <c r="F184" s="38" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G184" s="35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="45">
+    <row r="185" spans="1:7" ht="45" x14ac:dyDescent="0.35">
       <c r="A185" s="31">
         <v>182</v>
       </c>
@@ -15657,10 +15684,10 @@
         <v>80</v>
       </c>
       <c r="G185" s="35" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="60">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A186" s="31">
         <v>183</v>
       </c>
@@ -15677,13 +15704,13 @@
         <v>11</v>
       </c>
       <c r="F186" s="38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G186" s="35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="60">
+    <row r="187" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A187" s="31">
         <v>184</v>
       </c>
@@ -15703,10 +15730,10 @@
         <v>82</v>
       </c>
       <c r="G187" s="35" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="45">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="45" x14ac:dyDescent="0.35">
       <c r="A188" s="31">
         <v>185</v>
       </c>
@@ -15726,10 +15753,10 @@
         <v>22</v>
       </c>
       <c r="G188" s="35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="90">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="90" x14ac:dyDescent="0.35">
       <c r="A189" s="31">
         <v>186</v>
       </c>
@@ -15749,10 +15776,10 @@
         <v>17</v>
       </c>
       <c r="G189" s="35" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="45">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="45" x14ac:dyDescent="0.35">
       <c r="A190" s="31">
         <v>187</v>
       </c>
@@ -15772,10 +15799,10 @@
         <v>83</v>
       </c>
       <c r="G190" s="35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="45">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="45" x14ac:dyDescent="0.35">
       <c r="A191" s="31">
         <v>188</v>
       </c>
@@ -15795,10 +15822,10 @@
         <v>22</v>
       </c>
       <c r="G191" s="35" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="60">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="60" x14ac:dyDescent="0.35">
       <c r="A192" s="31">
         <v>189</v>
       </c>
@@ -15818,10 +15845,10 @@
         <v>52</v>
       </c>
       <c r="G192" s="35" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="45" x14ac:dyDescent="0.35">
       <c r="A193" s="31">
         <v>190</v>
       </c>
@@ -15841,7 +15868,7 @@
         <v>15</v>
       </c>
       <c r="G193" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
